--- a/PROJECT/EXCEL.xlsx
+++ b/PROJECT/EXCEL.xlsx
@@ -718,10 +718,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -730,22 +741,21 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="535">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -754,9 +764,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -795,208 +802,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1076,147 +881,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1328,897 +992,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2295,9 +1068,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2305,13 +1075,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2375,116 +1141,10 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2523,42 +1183,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -2581,2269 +1205,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -4897,6 +1258,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -5170,24 +1535,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.200000000000003" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -5860,80 +2225,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="86.4" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
       <c r="AH1" s="25"/>
       <c r="AI1" s="25"/>
     </row>
     <row r="2" spans="1:35" ht="37.200000000000003" customHeight="1">
-      <c r="A2" s="51">
+      <c r="A2" s="54">
         <v>44927</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
       <c r="AH2" s="24"/>
       <c r="AI2" s="24"/>
     </row>
@@ -7638,41 +4003,41 @@
       <c r="K21" s="21"/>
     </row>
     <row r="25" spans="1:35" ht="32.4" customHeight="1">
-      <c r="A25" s="51">
+      <c r="A25" s="54">
         <v>44958</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
     </row>
@@ -7959,9 +4324,9 @@
       <c r="AD28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
       <c r="AH28" s="33">
         <f>COUNTIF(C28:AG28, "P")</f>
         <v>23</v>
@@ -8054,9 +4419,9 @@
       <c r="AD29" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="55"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="49"/>
       <c r="AH29" s="33">
         <f>COUNTIF(C29:AG29,"P")</f>
         <v>21</v>
@@ -8149,9 +4514,9 @@
       <c r="AD30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="48"/>
       <c r="AH30" s="33">
         <f>COUNTIF(C30:AG30, "P")</f>
         <v>21</v>
@@ -8244,9 +4609,9 @@
       <c r="AD31" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE31" s="54"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="54"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
       <c r="AH31" s="33">
         <f t="shared" ref="AH31" si="14">COUNTIF(C31:AG31,"P")</f>
         <v>21</v>
@@ -8339,9 +4704,9 @@
       <c r="AD32" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="54"/>
-      <c r="AG32" s="55"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="49"/>
       <c r="AH32" s="33">
         <f>COUNTIF(C32:AG32, "P")</f>
         <v>18</v>
@@ -8434,9 +4799,9 @@
       <c r="AD33" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="54"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="48"/>
       <c r="AH33" s="33">
         <f t="shared" ref="AH33" si="15">COUNTIF(C33:AG33,"P")</f>
         <v>22</v>
@@ -8529,9 +4894,9 @@
       <c r="AD34" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE34" s="54"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="55"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="49"/>
       <c r="AH34" s="33">
         <f t="shared" ref="AH34" si="16">COUNTIF(C34:AG34, "P")</f>
         <v>17</v>
@@ -8624,9 +4989,9 @@
       <c r="AD35" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="48"/>
       <c r="AH35" s="33">
         <f t="shared" ref="AH35" si="17">COUNTIF(C35:AG35,"P")</f>
         <v>17</v>
@@ -8719,9 +5084,9 @@
       <c r="AD36" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="54"/>
+      <c r="AE36" s="48"/>
+      <c r="AF36" s="48"/>
+      <c r="AG36" s="48"/>
       <c r="AH36" s="33">
         <f t="shared" ref="AH36" si="18">COUNTIF(C36:AG36, "P")</f>
         <v>19</v>
@@ -8814,9 +5179,9 @@
       <c r="AD37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AE37" s="54"/>
-      <c r="AF37" s="54"/>
-      <c r="AG37" s="54"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48"/>
       <c r="AH37" s="33">
         <f t="shared" ref="AH37" si="19">COUNTIF(C37:AG37,"P")</f>
         <v>18</v>
@@ -8909,9 +5274,9 @@
       <c r="AD38" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="54"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
       <c r="AH38" s="33">
         <f t="shared" ref="AH38" si="20">COUNTIF(C38:AG38, "P")</f>
         <v>18</v>
@@ -9004,9 +5369,9 @@
       <c r="AD39" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AE39" s="54"/>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="54"/>
+      <c r="AE39" s="48"/>
+      <c r="AF39" s="48"/>
+      <c r="AG39" s="48"/>
       <c r="AH39" s="33">
         <f t="shared" ref="AH39" si="21">COUNTIF(C39:AG39,"P")</f>
         <v>16</v>
@@ -9099,9 +5464,9 @@
       <c r="AD40" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="48"/>
+      <c r="AG40" s="48"/>
       <c r="AH40" s="33">
         <f t="shared" ref="AH40" si="22">COUNTIF(C40:AG40, "P")</f>
         <v>19</v>
@@ -9194,9 +5559,9 @@
       <c r="AD41" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AE41" s="54"/>
-      <c r="AF41" s="55"/>
-      <c r="AG41" s="54"/>
+      <c r="AE41" s="48"/>
+      <c r="AF41" s="49"/>
+      <c r="AG41" s="48"/>
       <c r="AH41" s="33">
         <f>COUNTIF(C41:AG41,"P")</f>
         <v>21</v>
@@ -9289,9 +5654,9 @@
       <c r="AD42" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="54"/>
-      <c r="AF42" s="54"/>
-      <c r="AG42" s="54"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="48"/>
       <c r="AH42" s="33">
         <f>COUNTIF(C42:AG42, "P")</f>
         <v>22</v>
@@ -9305,41 +5670,41 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="48" spans="1:35" ht="33.6">
-      <c r="A48" s="51">
+      <c r="A48" s="54">
         <v>44986</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="55"/>
       <c r="AH48" s="24"/>
       <c r="AI48" s="24"/>
     </row>
@@ -11065,41 +7430,41 @@
       </c>
     </row>
     <row r="71" spans="1:35" ht="33.6">
-      <c r="A71" s="51">
+      <c r="A71" s="54">
         <v>45017</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="52"/>
-      <c r="X71" s="52"/>
-      <c r="Y71" s="52"/>
-      <c r="Z71" s="52"/>
-      <c r="AA71" s="52"/>
-      <c r="AB71" s="52"/>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="52"/>
-      <c r="AG71" s="52"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="55"/>
+      <c r="W71" s="55"/>
+      <c r="X71" s="55"/>
+      <c r="Y71" s="55"/>
+      <c r="Z71" s="55"/>
+      <c r="AA71" s="55"/>
+      <c r="AB71" s="55"/>
+      <c r="AC71" s="55"/>
+      <c r="AD71" s="55"/>
+      <c r="AE71" s="55"/>
+      <c r="AF71" s="55"/>
+      <c r="AG71" s="55"/>
       <c r="AH71" s="24"/>
       <c r="AI71" s="24"/>
     </row>
@@ -11322,7 +7687,7 @@
       <c r="D74" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="53"/>
+      <c r="E74" s="47"/>
       <c r="F74" s="38" t="s">
         <v>30</v>
       </c>
@@ -11341,7 +7706,7 @@
       <c r="K74" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L74" s="53"/>
+      <c r="L74" s="47"/>
       <c r="M74" s="38" t="s">
         <v>30</v>
       </c>
@@ -11379,7 +7744,7 @@
       <c r="Y74" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z74" s="53"/>
+      <c r="Z74" s="47"/>
       <c r="AA74" s="38" t="s">
         <v>30</v>
       </c>
@@ -11421,7 +7786,7 @@
       <c r="D75" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="53"/>
+      <c r="E75" s="47"/>
       <c r="F75" s="42" t="s">
         <v>30</v>
       </c>
@@ -11440,7 +7805,7 @@
       <c r="K75" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L75" s="53"/>
+      <c r="L75" s="47"/>
       <c r="M75" s="38" t="s">
         <v>30</v>
       </c>
@@ -11478,7 +7843,7 @@
       <c r="Y75" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z75" s="53"/>
+      <c r="Z75" s="47"/>
       <c r="AA75" s="42" t="s">
         <v>30</v>
       </c>
@@ -11520,7 +7885,7 @@
       <c r="D76" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E76" s="53"/>
+      <c r="E76" s="47"/>
       <c r="F76" s="42" t="s">
         <v>30</v>
       </c>
@@ -11539,7 +7904,7 @@
       <c r="K76" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="L76" s="53"/>
+      <c r="L76" s="47"/>
       <c r="M76" s="40" t="s">
         <v>38</v>
       </c>
@@ -11577,7 +7942,7 @@
       <c r="Y76" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z76" s="53"/>
+      <c r="Z76" s="47"/>
       <c r="AA76" s="42" t="s">
         <v>30</v>
       </c>
@@ -11638,7 +8003,7 @@
       <c r="K77" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L77" s="53"/>
+      <c r="L77" s="47"/>
       <c r="M77" s="38" t="s">
         <v>30</v>
       </c>
@@ -11676,7 +8041,7 @@
       <c r="Y77" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z77" s="53"/>
+      <c r="Z77" s="47"/>
       <c r="AA77" s="42" t="s">
         <v>30</v>
       </c>
@@ -11718,7 +8083,7 @@
       <c r="D78" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="53"/>
+      <c r="E78" s="47"/>
       <c r="F78" s="42" t="s">
         <v>30</v>
       </c>
@@ -11737,7 +8102,7 @@
       <c r="K78" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L78" s="53"/>
+      <c r="L78" s="47"/>
       <c r="M78" s="40" t="s">
         <v>38</v>
       </c>
@@ -11775,7 +8140,7 @@
       <c r="Y78" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z78" s="53"/>
+      <c r="Z78" s="47"/>
       <c r="AA78" s="43" t="s">
         <v>38</v>
       </c>
@@ -11817,7 +8182,7 @@
       <c r="D79" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="53"/>
+      <c r="E79" s="47"/>
       <c r="F79" s="42" t="s">
         <v>30</v>
       </c>
@@ -11874,7 +8239,7 @@
       <c r="Y79" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z79" s="53"/>
+      <c r="Z79" s="47"/>
       <c r="AA79" s="43" t="s">
         <v>38</v>
       </c>
@@ -12015,7 +8380,7 @@
       <c r="D81" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E81" s="53"/>
+      <c r="E81" s="47"/>
       <c r="F81" s="42" t="s">
         <v>30</v>
       </c>
@@ -12034,7 +8399,7 @@
       <c r="K81" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L81" s="53"/>
+      <c r="L81" s="47"/>
       <c r="M81" s="38" t="s">
         <v>30</v>
       </c>
@@ -12114,7 +8479,7 @@
       <c r="D82" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="53"/>
+      <c r="E82" s="47"/>
       <c r="F82" s="42" t="s">
         <v>30</v>
       </c>
@@ -12171,7 +8536,7 @@
       <c r="Y82" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z82" s="53"/>
+      <c r="Z82" s="47"/>
       <c r="AA82" s="42" t="s">
         <v>30</v>
       </c>
@@ -12213,7 +8578,7 @@
       <c r="D83" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="53"/>
+      <c r="E83" s="47"/>
       <c r="F83" s="43" t="s">
         <v>38</v>
       </c>
@@ -12232,7 +8597,7 @@
       <c r="K83" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L83" s="53"/>
+      <c r="L83" s="47"/>
       <c r="M83" s="38" t="s">
         <v>30</v>
       </c>
@@ -12270,7 +8635,7 @@
       <c r="Y83" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Z83" s="53"/>
+      <c r="Z83" s="47"/>
       <c r="AA83" s="42" t="s">
         <v>30</v>
       </c>
@@ -12369,7 +8734,7 @@
       <c r="Y84" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z84" s="53"/>
+      <c r="Z84" s="47"/>
       <c r="AA84" s="42" t="s">
         <v>30</v>
       </c>
@@ -12411,7 +8776,7 @@
       <c r="D85" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="53"/>
+      <c r="E85" s="47"/>
       <c r="F85" s="42" t="s">
         <v>30</v>
       </c>
@@ -12430,7 +8795,7 @@
       <c r="K85" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="L85" s="53"/>
+      <c r="L85" s="47"/>
       <c r="M85" s="40" t="s">
         <v>38</v>
       </c>
@@ -12468,7 +8833,7 @@
       <c r="Y85" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Z85" s="53"/>
+      <c r="Z85" s="47"/>
       <c r="AA85" s="42" t="s">
         <v>30</v>
       </c>
@@ -12529,7 +8894,7 @@
       <c r="K86" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L86" s="53"/>
+      <c r="L86" s="47"/>
       <c r="M86" s="38" t="s">
         <v>30</v>
       </c>
@@ -12567,7 +8932,7 @@
       <c r="Y86" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z86" s="53"/>
+      <c r="Z86" s="47"/>
       <c r="AA86" s="42" t="s">
         <v>30</v>
       </c>
@@ -12609,7 +8974,7 @@
       <c r="D87" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="53"/>
+      <c r="E87" s="47"/>
       <c r="F87" s="43" t="s">
         <v>38</v>
       </c>
@@ -12628,7 +8993,7 @@
       <c r="K87" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L87" s="53"/>
+      <c r="L87" s="47"/>
       <c r="M87" s="38" t="s">
         <v>30</v>
       </c>
@@ -12666,7 +9031,7 @@
       <c r="Y87" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z87" s="53"/>
+      <c r="Z87" s="47"/>
       <c r="AA87" s="42" t="s">
         <v>30</v>
       </c>
@@ -12727,7 +9092,7 @@
       <c r="K88" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L88" s="53"/>
+      <c r="L88" s="47"/>
       <c r="M88" s="38" t="s">
         <v>30</v>
       </c>
@@ -12765,7 +9130,7 @@
       <c r="Y88" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z88" s="53"/>
+      <c r="Z88" s="47"/>
       <c r="AA88" s="42" t="s">
         <v>30</v>
       </c>
@@ -12795,41 +9160,41 @@
       </c>
     </row>
     <row r="94" spans="1:35" ht="33.6">
-      <c r="A94" s="51">
+      <c r="A94" s="54">
         <v>45047</v>
       </c>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-      <c r="K94" s="52"/>
-      <c r="L94" s="52"/>
-      <c r="M94" s="52"/>
-      <c r="N94" s="52"/>
-      <c r="O94" s="52"/>
-      <c r="P94" s="52"/>
-      <c r="Q94" s="52"/>
-      <c r="R94" s="52"/>
-      <c r="S94" s="52"/>
-      <c r="T94" s="52"/>
-      <c r="U94" s="52"/>
-      <c r="V94" s="52"/>
-      <c r="W94" s="52"/>
-      <c r="X94" s="52"/>
-      <c r="Y94" s="52"/>
-      <c r="Z94" s="52"/>
-      <c r="AA94" s="52"/>
-      <c r="AB94" s="52"/>
-      <c r="AC94" s="52"/>
-      <c r="AD94" s="52"/>
-      <c r="AE94" s="52"/>
-      <c r="AF94" s="52"/>
-      <c r="AG94" s="52"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="55"/>
+      <c r="P94" s="55"/>
+      <c r="Q94" s="55"/>
+      <c r="R94" s="55"/>
+      <c r="S94" s="55"/>
+      <c r="T94" s="55"/>
+      <c r="U94" s="55"/>
+      <c r="V94" s="55"/>
+      <c r="W94" s="55"/>
+      <c r="X94" s="55"/>
+      <c r="Y94" s="55"/>
+      <c r="Z94" s="55"/>
+      <c r="AA94" s="55"/>
+      <c r="AB94" s="55"/>
+      <c r="AC94" s="55"/>
+      <c r="AD94" s="55"/>
+      <c r="AE94" s="55"/>
+      <c r="AF94" s="55"/>
+      <c r="AG94" s="55"/>
       <c r="AH94" s="24"/>
       <c r="AI94" s="24"/>
     </row>
@@ -13083,7 +9448,7 @@
       <c r="O97" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P97" s="53"/>
+      <c r="P97" s="47"/>
       <c r="Q97" s="38" t="s">
         <v>30</v>
       </c>
@@ -13102,7 +9467,7 @@
       <c r="V97" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W97" s="53"/>
+      <c r="W97" s="47"/>
       <c r="X97" s="40" t="s">
         <v>38</v>
       </c>
@@ -13165,7 +9530,7 @@
       <c r="H98" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I98" s="57"/>
+      <c r="I98" s="51"/>
       <c r="J98" s="42" t="s">
         <v>30</v>
       </c>
@@ -13184,7 +9549,7 @@
       <c r="O98" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="P98" s="56"/>
+      <c r="P98" s="50"/>
       <c r="Q98" s="43" t="s">
         <v>38</v>
       </c>
@@ -13203,7 +9568,7 @@
       <c r="V98" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W98" s="56"/>
+      <c r="W98" s="50"/>
       <c r="X98" s="43" t="s">
         <v>38</v>
       </c>
@@ -13222,7 +9587,7 @@
       <c r="AC98" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AD98" s="57"/>
+      <c r="AD98" s="51"/>
       <c r="AE98" s="42" t="s">
         <v>30</v>
       </c>
@@ -13266,7 +9631,7 @@
       <c r="H99" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I99" s="57"/>
+      <c r="I99" s="51"/>
       <c r="J99" s="42" t="s">
         <v>30</v>
       </c>
@@ -13285,7 +9650,7 @@
       <c r="O99" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P99" s="56"/>
+      <c r="P99" s="50"/>
       <c r="Q99" s="42" t="s">
         <v>30</v>
       </c>
@@ -13304,7 +9669,7 @@
       <c r="V99" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W99" s="56"/>
+      <c r="W99" s="50"/>
       <c r="X99" s="43" t="s">
         <v>38</v>
       </c>
@@ -13323,7 +9688,7 @@
       <c r="AC99" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD99" s="57"/>
+      <c r="AD99" s="51"/>
       <c r="AE99" s="42" t="s">
         <v>30</v>
       </c>
@@ -13367,7 +9732,7 @@
       <c r="H100" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I100" s="57"/>
+      <c r="I100" s="51"/>
       <c r="J100" s="42" t="s">
         <v>30</v>
       </c>
@@ -13386,7 +9751,7 @@
       <c r="O100" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P100" s="57"/>
+      <c r="P100" s="51"/>
       <c r="Q100" s="42" t="s">
         <v>30</v>
       </c>
@@ -13405,7 +9770,7 @@
       <c r="V100" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W100" s="56"/>
+      <c r="W100" s="50"/>
       <c r="X100" s="42" t="s">
         <v>30</v>
       </c>
@@ -13424,7 +9789,7 @@
       <c r="AC100" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD100" s="57"/>
+      <c r="AD100" s="51"/>
       <c r="AE100" s="42" t="s">
         <v>30</v>
       </c>
@@ -13468,7 +9833,7 @@
       <c r="H101" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I101" s="57"/>
+      <c r="I101" s="51"/>
       <c r="J101" s="42" t="s">
         <v>30</v>
       </c>
@@ -13487,7 +9852,7 @@
       <c r="O101" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P101" s="56"/>
+      <c r="P101" s="50"/>
       <c r="Q101" s="42" t="s">
         <v>30</v>
       </c>
@@ -13506,7 +9871,7 @@
       <c r="V101" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W101" s="56"/>
+      <c r="W101" s="50"/>
       <c r="X101" s="43" t="s">
         <v>38</v>
       </c>
@@ -13525,7 +9890,7 @@
       <c r="AC101" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD101" s="57"/>
+      <c r="AD101" s="51"/>
       <c r="AE101" s="42" t="s">
         <v>30</v>
       </c>
@@ -13569,7 +9934,7 @@
       <c r="H102" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I102" s="57"/>
+      <c r="I102" s="51"/>
       <c r="J102" s="42" t="s">
         <v>30</v>
       </c>
@@ -13588,7 +9953,7 @@
       <c r="O102" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P102" s="56"/>
+      <c r="P102" s="50"/>
       <c r="Q102" s="42" t="s">
         <v>30</v>
       </c>
@@ -13607,7 +9972,7 @@
       <c r="V102" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W102" s="56"/>
+      <c r="W102" s="50"/>
       <c r="X102" s="42" t="s">
         <v>30</v>
       </c>
@@ -13626,7 +9991,7 @@
       <c r="AC102" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AD102" s="57"/>
+      <c r="AD102" s="51"/>
       <c r="AE102" s="42" t="s">
         <v>30</v>
       </c>
@@ -13670,7 +10035,7 @@
       <c r="H103" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I103" s="57"/>
+      <c r="I103" s="51"/>
       <c r="J103" s="42" t="s">
         <v>30</v>
       </c>
@@ -13689,7 +10054,7 @@
       <c r="O103" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="P103" s="56"/>
+      <c r="P103" s="50"/>
       <c r="Q103" s="42" t="s">
         <v>30</v>
       </c>
@@ -13708,7 +10073,7 @@
       <c r="V103" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W103" s="56"/>
+      <c r="W103" s="50"/>
       <c r="X103" s="42" t="s">
         <v>30</v>
       </c>
@@ -13727,7 +10092,7 @@
       <c r="AC103" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD103" s="57"/>
+      <c r="AD103" s="51"/>
       <c r="AE103" s="42" t="s">
         <v>30</v>
       </c>
@@ -13771,7 +10136,7 @@
       <c r="H104" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I104" s="57"/>
+      <c r="I104" s="51"/>
       <c r="J104" s="42" t="s">
         <v>30</v>
       </c>
@@ -13790,7 +10155,7 @@
       <c r="O104" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P104" s="56"/>
+      <c r="P104" s="50"/>
       <c r="Q104" s="42" t="s">
         <v>30</v>
       </c>
@@ -13809,7 +10174,7 @@
       <c r="V104" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W104" s="56"/>
+      <c r="W104" s="50"/>
       <c r="X104" s="42" t="s">
         <v>30</v>
       </c>
@@ -13828,7 +10193,7 @@
       <c r="AC104" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AD104" s="57"/>
+      <c r="AD104" s="51"/>
       <c r="AE104" s="42" t="s">
         <v>30</v>
       </c>
@@ -13872,7 +10237,7 @@
       <c r="H105" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I105" s="57"/>
+      <c r="I105" s="51"/>
       <c r="J105" s="42" t="s">
         <v>30</v>
       </c>
@@ -13891,7 +10256,7 @@
       <c r="O105" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P105" s="56"/>
+      <c r="P105" s="50"/>
       <c r="Q105" s="42" t="s">
         <v>30</v>
       </c>
@@ -13910,7 +10275,7 @@
       <c r="V105" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W105" s="56"/>
+      <c r="W105" s="50"/>
       <c r="X105" s="42" t="s">
         <v>30</v>
       </c>
@@ -13929,7 +10294,7 @@
       <c r="AC105" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD105" s="57"/>
+      <c r="AD105" s="51"/>
       <c r="AE105" s="42" t="s">
         <v>30</v>
       </c>
@@ -13973,7 +10338,7 @@
       <c r="H106" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I106" s="57"/>
+      <c r="I106" s="51"/>
       <c r="J106" s="42" t="s">
         <v>30</v>
       </c>
@@ -13992,7 +10357,7 @@
       <c r="O106" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P106" s="56"/>
+      <c r="P106" s="50"/>
       <c r="Q106" s="42" t="s">
         <v>30</v>
       </c>
@@ -14011,7 +10376,7 @@
       <c r="V106" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W106" s="56"/>
+      <c r="W106" s="50"/>
       <c r="X106" s="42" t="s">
         <v>30</v>
       </c>
@@ -14030,7 +10395,7 @@
       <c r="AC106" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD106" s="57"/>
+      <c r="AD106" s="51"/>
       <c r="AE106" s="42" t="s">
         <v>30</v>
       </c>
@@ -14074,7 +10439,7 @@
       <c r="H107" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I107" s="57"/>
+      <c r="I107" s="51"/>
       <c r="J107" s="42" t="s">
         <v>30</v>
       </c>
@@ -14093,7 +10458,7 @@
       <c r="O107" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P107" s="56"/>
+      <c r="P107" s="50"/>
       <c r="Q107" s="42" t="s">
         <v>30</v>
       </c>
@@ -14112,7 +10477,7 @@
       <c r="V107" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W107" s="56"/>
+      <c r="W107" s="50"/>
       <c r="X107" s="42" t="s">
         <v>30</v>
       </c>
@@ -14131,7 +10496,7 @@
       <c r="AC107" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD107" s="57"/>
+      <c r="AD107" s="51"/>
       <c r="AE107" s="42" t="s">
         <v>30</v>
       </c>
@@ -14175,7 +10540,7 @@
       <c r="H108" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I108" s="57"/>
+      <c r="I108" s="51"/>
       <c r="J108" s="42" t="s">
         <v>30</v>
       </c>
@@ -14194,7 +10559,7 @@
       <c r="O108" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P108" s="56"/>
+      <c r="P108" s="50"/>
       <c r="Q108" s="42" t="s">
         <v>30</v>
       </c>
@@ -14213,7 +10578,7 @@
       <c r="V108" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W108" s="56"/>
+      <c r="W108" s="50"/>
       <c r="X108" s="43" t="s">
         <v>38</v>
       </c>
@@ -14232,7 +10597,7 @@
       <c r="AC108" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD108" s="57"/>
+      <c r="AD108" s="51"/>
       <c r="AE108" s="42" t="s">
         <v>30</v>
       </c>
@@ -14276,7 +10641,7 @@
       <c r="H109" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I109" s="57"/>
+      <c r="I109" s="51"/>
       <c r="J109" s="42" t="s">
         <v>30</v>
       </c>
@@ -14295,7 +10660,7 @@
       <c r="O109" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="P109" s="56"/>
+      <c r="P109" s="50"/>
       <c r="Q109" s="42" t="s">
         <v>30</v>
       </c>
@@ -14314,7 +10679,7 @@
       <c r="V109" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W109" s="56"/>
+      <c r="W109" s="50"/>
       <c r="X109" s="42" t="s">
         <v>30</v>
       </c>
@@ -14333,7 +10698,7 @@
       <c r="AC109" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD109" s="57"/>
+      <c r="AD109" s="51"/>
       <c r="AE109" s="42" t="s">
         <v>30</v>
       </c>
@@ -14377,7 +10742,7 @@
       <c r="H110" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I110" s="57"/>
+      <c r="I110" s="51"/>
       <c r="J110" s="42" t="s">
         <v>30</v>
       </c>
@@ -14396,7 +10761,7 @@
       <c r="O110" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="P110" s="56"/>
+      <c r="P110" s="50"/>
       <c r="Q110" s="42" t="s">
         <v>30</v>
       </c>
@@ -14415,7 +10780,7 @@
       <c r="V110" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W110" s="56"/>
+      <c r="W110" s="50"/>
       <c r="X110" s="42" t="s">
         <v>30</v>
       </c>
@@ -14434,7 +10799,7 @@
       <c r="AC110" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AD110" s="57"/>
+      <c r="AD110" s="51"/>
       <c r="AE110" s="42" t="s">
         <v>30</v>
       </c>
@@ -14478,7 +10843,7 @@
       <c r="H111" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I111" s="57"/>
+      <c r="I111" s="51"/>
       <c r="J111" s="42" t="s">
         <v>30</v>
       </c>
@@ -14497,7 +10862,7 @@
       <c r="O111" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P111" s="56"/>
+      <c r="P111" s="50"/>
       <c r="Q111" s="42" t="s">
         <v>30</v>
       </c>
@@ -14516,7 +10881,7 @@
       <c r="V111" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="W111" s="56"/>
+      <c r="W111" s="50"/>
       <c r="X111" s="42" t="s">
         <v>38</v>
       </c>
@@ -14535,7 +10900,7 @@
       <c r="AC111" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AD111" s="57"/>
+      <c r="AD111" s="51"/>
       <c r="AE111" s="42" t="s">
         <v>30</v>
       </c>
@@ -14555,41 +10920,41 @@
       </c>
     </row>
     <row r="117" spans="1:35" ht="33.6">
-      <c r="A117" s="51">
+      <c r="A117" s="54">
         <v>45078</v>
       </c>
-      <c r="B117" s="52"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="52"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="52"/>
-      <c r="G117" s="52"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="52"/>
-      <c r="J117" s="52"/>
-      <c r="K117" s="52"/>
-      <c r="L117" s="52"/>
-      <c r="M117" s="52"/>
-      <c r="N117" s="52"/>
-      <c r="O117" s="52"/>
-      <c r="P117" s="52"/>
-      <c r="Q117" s="52"/>
-      <c r="R117" s="52"/>
-      <c r="S117" s="52"/>
-      <c r="T117" s="52"/>
-      <c r="U117" s="52"/>
-      <c r="V117" s="52"/>
-      <c r="W117" s="52"/>
-      <c r="X117" s="52"/>
-      <c r="Y117" s="52"/>
-      <c r="Z117" s="52"/>
-      <c r="AA117" s="52"/>
-      <c r="AB117" s="52"/>
-      <c r="AC117" s="52"/>
-      <c r="AD117" s="52"/>
-      <c r="AE117" s="52"/>
-      <c r="AF117" s="52"/>
-      <c r="AG117" s="52"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="55"/>
+      <c r="J117" s="55"/>
+      <c r="K117" s="55"/>
+      <c r="L117" s="55"/>
+      <c r="M117" s="55"/>
+      <c r="N117" s="55"/>
+      <c r="O117" s="55"/>
+      <c r="P117" s="55"/>
+      <c r="Q117" s="55"/>
+      <c r="R117" s="55"/>
+      <c r="S117" s="55"/>
+      <c r="T117" s="55"/>
+      <c r="U117" s="55"/>
+      <c r="V117" s="55"/>
+      <c r="W117" s="55"/>
+      <c r="X117" s="55"/>
+      <c r="Y117" s="55"/>
+      <c r="Z117" s="55"/>
+      <c r="AA117" s="55"/>
+      <c r="AB117" s="55"/>
+      <c r="AC117" s="55"/>
+      <c r="AD117" s="55"/>
+      <c r="AE117" s="55"/>
+      <c r="AF117" s="55"/>
+      <c r="AG117" s="55"/>
       <c r="AH117" s="24"/>
       <c r="AI117" s="24"/>
     </row>
@@ -14832,7 +11197,7 @@
       <c r="L120" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="M120" s="53"/>
+      <c r="M120" s="47"/>
       <c r="N120" s="38" t="s">
         <v>30</v>
       </c>
@@ -14851,7 +11216,7 @@
       <c r="S120" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="T120" s="53"/>
+      <c r="T120" s="47"/>
       <c r="U120" s="38" t="s">
         <v>30</v>
       </c>
@@ -14890,7 +11255,7 @@
         <v>30</v>
       </c>
       <c r="AH120" s="33">
-        <f t="shared" ref="AH120:AH124" si="68">COUNTIF(C120:AG120, "P")</f>
+        <f t="shared" ref="AH120" si="68">COUNTIF(C120:AG120, "P")</f>
         <v>24</v>
       </c>
       <c r="AI120" s="33">
@@ -14914,7 +11279,7 @@
       <c r="E121" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F121" s="57"/>
+      <c r="F121" s="51"/>
       <c r="G121" s="42" t="s">
         <v>30</v>
       </c>
@@ -14933,7 +11298,7 @@
       <c r="L121" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="M121" s="56"/>
+      <c r="M121" s="50"/>
       <c r="N121" s="38" t="s">
         <v>30</v>
       </c>
@@ -14952,7 +11317,7 @@
       <c r="S121" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T121" s="56"/>
+      <c r="T121" s="50"/>
       <c r="U121" s="42" t="s">
         <v>30</v>
       </c>
@@ -14971,7 +11336,7 @@
       <c r="Z121" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA121" s="56"/>
+      <c r="AA121" s="50"/>
       <c r="AB121" s="38" t="s">
         <v>30</v>
       </c>
@@ -14991,7 +11356,7 @@
         <v>38</v>
       </c>
       <c r="AH121" s="33">
-        <f t="shared" ref="AH121:AH125" si="69">COUNTIF(C121:AG121,"P")</f>
+        <f t="shared" ref="AH121" si="69">COUNTIF(C121:AG121,"P")</f>
         <v>18</v>
       </c>
       <c r="AI121" s="33">
@@ -15015,7 +11380,7 @@
       <c r="E122" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F122" s="57"/>
+      <c r="F122" s="51"/>
       <c r="G122" s="42" t="s">
         <v>30</v>
       </c>
@@ -15034,7 +11399,7 @@
       <c r="L122" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M122" s="56"/>
+      <c r="M122" s="50"/>
       <c r="N122" s="40" t="s">
         <v>38</v>
       </c>
@@ -15053,7 +11418,7 @@
       <c r="S122" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T122" s="56"/>
+      <c r="T122" s="50"/>
       <c r="U122" s="43" t="s">
         <v>38</v>
       </c>
@@ -15072,7 +11437,7 @@
       <c r="Z122" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA122" s="56"/>
+      <c r="AA122" s="50"/>
       <c r="AB122" s="40" t="s">
         <v>38</v>
       </c>
@@ -15092,7 +11457,7 @@
         <v>30</v>
       </c>
       <c r="AH122" s="33">
-        <f t="shared" ref="AH122:AH126" si="70">COUNTIF(C122:AG122, "P")</f>
+        <f t="shared" ref="AH122" si="70">COUNTIF(C122:AG122, "P")</f>
         <v>18</v>
       </c>
       <c r="AI122" s="33">
@@ -15116,7 +11481,7 @@
       <c r="E123" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F123" s="57"/>
+      <c r="F123" s="51"/>
       <c r="G123" s="42" t="s">
         <v>30</v>
       </c>
@@ -15135,7 +11500,7 @@
       <c r="L123" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M123" s="57"/>
+      <c r="M123" s="51"/>
       <c r="N123" s="38" t="s">
         <v>30</v>
       </c>
@@ -15154,7 +11519,7 @@
       <c r="S123" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T123" s="56"/>
+      <c r="T123" s="50"/>
       <c r="U123" s="42" t="s">
         <v>30</v>
       </c>
@@ -15173,7 +11538,7 @@
       <c r="Z123" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA123" s="57"/>
+      <c r="AA123" s="51"/>
       <c r="AB123" s="38" t="s">
         <v>30</v>
       </c>
@@ -15217,7 +11582,7 @@
       <c r="E124" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F124" s="57"/>
+      <c r="F124" s="51"/>
       <c r="G124" s="42" t="s">
         <v>30</v>
       </c>
@@ -15236,7 +11601,7 @@
       <c r="L124" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M124" s="56"/>
+      <c r="M124" s="50"/>
       <c r="N124" s="40" t="s">
         <v>38</v>
       </c>
@@ -15255,7 +11620,7 @@
       <c r="S124" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T124" s="56"/>
+      <c r="T124" s="50"/>
       <c r="U124" s="42" t="s">
         <v>30</v>
       </c>
@@ -15274,7 +11639,7 @@
       <c r="Z124" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA124" s="56"/>
+      <c r="AA124" s="50"/>
       <c r="AB124" s="40" t="s">
         <v>38</v>
       </c>
@@ -15294,7 +11659,7 @@
         <v>38</v>
       </c>
       <c r="AH124" s="33">
-        <f t="shared" ref="AH124:AH128" si="73">COUNTIF(C124:AG124, "P")</f>
+        <f t="shared" ref="AH124" si="73">COUNTIF(C124:AG124, "P")</f>
         <v>20</v>
       </c>
       <c r="AI124" s="33">
@@ -15318,7 +11683,7 @@
       <c r="E125" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F125" s="57"/>
+      <c r="F125" s="51"/>
       <c r="G125" s="42" t="s">
         <v>30</v>
       </c>
@@ -15337,7 +11702,7 @@
       <c r="L125" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M125" s="56"/>
+      <c r="M125" s="50"/>
       <c r="N125" s="38" t="s">
         <v>30</v>
       </c>
@@ -15356,7 +11721,7 @@
       <c r="S125" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T125" s="56"/>
+      <c r="T125" s="50"/>
       <c r="U125" s="42" t="s">
         <v>30</v>
       </c>
@@ -15375,7 +11740,7 @@
       <c r="Z125" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AA125" s="56"/>
+      <c r="AA125" s="50"/>
       <c r="AB125" s="38" t="s">
         <v>30</v>
       </c>
@@ -15395,7 +11760,7 @@
         <v>30</v>
       </c>
       <c r="AH125" s="33">
-        <f t="shared" ref="AH125:AH129" si="74">COUNTIF(C125:AG125,"P")</f>
+        <f t="shared" ref="AH125" si="74">COUNTIF(C125:AG125,"P")</f>
         <v>25</v>
       </c>
       <c r="AI125" s="33">
@@ -15419,7 +11784,7 @@
       <c r="E126" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F126" s="57"/>
+      <c r="F126" s="51"/>
       <c r="G126" s="42" t="s">
         <v>30</v>
       </c>
@@ -15438,7 +11803,7 @@
       <c r="L126" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="M126" s="56"/>
+      <c r="M126" s="50"/>
       <c r="N126" s="38" t="s">
         <v>30</v>
       </c>
@@ -15457,7 +11822,7 @@
       <c r="S126" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T126" s="57"/>
+      <c r="T126" s="51"/>
       <c r="U126" s="42" t="s">
         <v>30</v>
       </c>
@@ -15476,7 +11841,7 @@
       <c r="Z126" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA126" s="57"/>
+      <c r="AA126" s="51"/>
       <c r="AB126" s="38" t="s">
         <v>30</v>
       </c>
@@ -15496,7 +11861,7 @@
         <v>30</v>
       </c>
       <c r="AH126" s="33">
-        <f t="shared" ref="AH126:AH130" si="75">COUNTIF(C126:AG126, "P")</f>
+        <f t="shared" ref="AH126" si="75">COUNTIF(C126:AG126, "P")</f>
         <v>23</v>
       </c>
       <c r="AI126" s="33">
@@ -15520,7 +11885,7 @@
       <c r="E127" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F127" s="57"/>
+      <c r="F127" s="51"/>
       <c r="G127" s="42" t="s">
         <v>30</v>
       </c>
@@ -15539,7 +11904,7 @@
       <c r="L127" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M127" s="56"/>
+      <c r="M127" s="50"/>
       <c r="N127" s="38" t="s">
         <v>30</v>
       </c>
@@ -15558,7 +11923,7 @@
       <c r="S127" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T127" s="56"/>
+      <c r="T127" s="50"/>
       <c r="U127" s="42" t="s">
         <v>30</v>
       </c>
@@ -15577,7 +11942,7 @@
       <c r="Z127" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA127" s="57"/>
+      <c r="AA127" s="51"/>
       <c r="AB127" s="38" t="s">
         <v>30</v>
       </c>
@@ -15621,7 +11986,7 @@
       <c r="E128" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F128" s="57"/>
+      <c r="F128" s="51"/>
       <c r="G128" s="42" t="s">
         <v>30</v>
       </c>
@@ -15640,7 +12005,7 @@
       <c r="L128" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M128" s="56"/>
+      <c r="M128" s="50"/>
       <c r="N128" s="40" t="s">
         <v>38</v>
       </c>
@@ -15659,7 +12024,7 @@
       <c r="S128" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T128" s="56"/>
+      <c r="T128" s="50"/>
       <c r="U128" s="42" t="s">
         <v>30</v>
       </c>
@@ -15678,7 +12043,7 @@
       <c r="Z128" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA128" s="56"/>
+      <c r="AA128" s="50"/>
       <c r="AB128" s="40" t="s">
         <v>38</v>
       </c>
@@ -15722,7 +12087,7 @@
       <c r="E129" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F129" s="57"/>
+      <c r="F129" s="51"/>
       <c r="G129" s="42" t="s">
         <v>30</v>
       </c>
@@ -15741,7 +12106,7 @@
       <c r="L129" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M129" s="56"/>
+      <c r="M129" s="50"/>
       <c r="N129" s="38" t="s">
         <v>30</v>
       </c>
@@ -15760,7 +12125,7 @@
       <c r="S129" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T129" s="56"/>
+      <c r="T129" s="50"/>
       <c r="U129" s="42" t="s">
         <v>30</v>
       </c>
@@ -15779,7 +12144,7 @@
       <c r="Z129" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA129" s="57"/>
+      <c r="AA129" s="51"/>
       <c r="AB129" s="38" t="s">
         <v>30</v>
       </c>
@@ -15823,7 +12188,7 @@
       <c r="E130" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F130" s="57"/>
+      <c r="F130" s="51"/>
       <c r="G130" s="42" t="s">
         <v>30</v>
       </c>
@@ -15842,7 +12207,7 @@
       <c r="L130" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M130" s="56"/>
+      <c r="M130" s="50"/>
       <c r="N130" s="38" t="s">
         <v>30</v>
       </c>
@@ -15861,7 +12226,7 @@
       <c r="S130" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="T130" s="56"/>
+      <c r="T130" s="50"/>
       <c r="U130" s="42" t="s">
         <v>30</v>
       </c>
@@ -15880,7 +12245,7 @@
       <c r="Z130" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA130" s="56"/>
+      <c r="AA130" s="50"/>
       <c r="AB130" s="38" t="s">
         <v>30</v>
       </c>
@@ -15924,7 +12289,7 @@
       <c r="E131" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F131" s="57"/>
+      <c r="F131" s="51"/>
       <c r="G131" s="42" t="s">
         <v>30</v>
       </c>
@@ -15943,7 +12308,7 @@
       <c r="L131" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M131" s="56"/>
+      <c r="M131" s="50"/>
       <c r="N131" s="40" t="s">
         <v>38</v>
       </c>
@@ -15962,7 +12327,7 @@
       <c r="S131" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T131" s="57"/>
+      <c r="T131" s="51"/>
       <c r="U131" s="42" t="s">
         <v>30</v>
       </c>
@@ -15981,7 +12346,7 @@
       <c r="Z131" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA131" s="56"/>
+      <c r="AA131" s="50"/>
       <c r="AB131" s="40" t="s">
         <v>38</v>
       </c>
@@ -16025,7 +12390,7 @@
       <c r="E132" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F132" s="57"/>
+      <c r="F132" s="51"/>
       <c r="G132" s="42" t="s">
         <v>30</v>
       </c>
@@ -16044,7 +12409,7 @@
       <c r="L132" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="M132" s="56"/>
+      <c r="M132" s="50"/>
       <c r="N132" s="38" t="s">
         <v>30</v>
       </c>
@@ -16063,7 +12428,7 @@
       <c r="S132" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T132" s="56"/>
+      <c r="T132" s="50"/>
       <c r="U132" s="42" t="s">
         <v>30</v>
       </c>
@@ -16082,7 +12447,7 @@
       <c r="Z132" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA132" s="56"/>
+      <c r="AA132" s="50"/>
       <c r="AB132" s="38" t="s">
         <v>30</v>
       </c>
@@ -16126,7 +12491,7 @@
       <c r="E133" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="57"/>
+      <c r="F133" s="51"/>
       <c r="G133" s="42" t="s">
         <v>30</v>
       </c>
@@ -16145,7 +12510,7 @@
       <c r="L133" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="M133" s="56"/>
+      <c r="M133" s="50"/>
       <c r="N133" s="38" t="s">
         <v>30</v>
       </c>
@@ -16164,7 +12529,7 @@
       <c r="S133" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T133" s="57"/>
+      <c r="T133" s="51"/>
       <c r="U133" s="42" t="s">
         <v>30</v>
       </c>
@@ -16183,7 +12548,7 @@
       <c r="Z133" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AA133" s="56"/>
+      <c r="AA133" s="50"/>
       <c r="AB133" s="38" t="s">
         <v>30</v>
       </c>
@@ -16227,7 +12592,7 @@
       <c r="E134" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F134" s="57"/>
+      <c r="F134" s="51"/>
       <c r="G134" s="42" t="s">
         <v>30</v>
       </c>
@@ -16246,7 +12611,7 @@
       <c r="L134" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M134" s="56"/>
+      <c r="M134" s="50"/>
       <c r="N134" s="38" t="s">
         <v>30</v>
       </c>
@@ -16265,7 +12630,7 @@
       <c r="S134" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T134" s="56"/>
+      <c r="T134" s="50"/>
       <c r="U134" s="42" t="s">
         <v>30</v>
       </c>
@@ -16284,7 +12649,7 @@
       <c r="Z134" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AA134" s="56"/>
+      <c r="AA134" s="50"/>
       <c r="AB134" s="38" t="s">
         <v>30</v>
       </c>
@@ -16313,41 +12678,41 @@
       </c>
     </row>
     <row r="139" spans="1:35" ht="33.6">
-      <c r="A139" s="51">
+      <c r="A139" s="54">
         <v>45108</v>
       </c>
-      <c r="B139" s="52"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="52"/>
-      <c r="J139" s="52"/>
-      <c r="K139" s="52"/>
-      <c r="L139" s="52"/>
-      <c r="M139" s="52"/>
-      <c r="N139" s="52"/>
-      <c r="O139" s="52"/>
-      <c r="P139" s="52"/>
-      <c r="Q139" s="52"/>
-      <c r="R139" s="52"/>
-      <c r="S139" s="52"/>
-      <c r="T139" s="52"/>
-      <c r="U139" s="52"/>
-      <c r="V139" s="52"/>
-      <c r="W139" s="52"/>
-      <c r="X139" s="52"/>
-      <c r="Y139" s="52"/>
-      <c r="Z139" s="52"/>
-      <c r="AA139" s="52"/>
-      <c r="AB139" s="52"/>
-      <c r="AC139" s="52"/>
-      <c r="AD139" s="52"/>
-      <c r="AE139" s="52"/>
-      <c r="AF139" s="52"/>
-      <c r="AG139" s="52"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="55"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="55"/>
+      <c r="J139" s="55"/>
+      <c r="K139" s="55"/>
+      <c r="L139" s="55"/>
+      <c r="M139" s="55"/>
+      <c r="N139" s="55"/>
+      <c r="O139" s="55"/>
+      <c r="P139" s="55"/>
+      <c r="Q139" s="55"/>
+      <c r="R139" s="55"/>
+      <c r="S139" s="55"/>
+      <c r="T139" s="55"/>
+      <c r="U139" s="55"/>
+      <c r="V139" s="55"/>
+      <c r="W139" s="55"/>
+      <c r="X139" s="55"/>
+      <c r="Y139" s="55"/>
+      <c r="Z139" s="55"/>
+      <c r="AA139" s="55"/>
+      <c r="AB139" s="55"/>
+      <c r="AC139" s="55"/>
+      <c r="AD139" s="55"/>
+      <c r="AE139" s="55"/>
+      <c r="AF139" s="55"/>
+      <c r="AG139" s="55"/>
       <c r="AH139" s="24"/>
       <c r="AI139" s="24"/>
     </row>
@@ -16567,7 +12932,7 @@
       <c r="C142" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D142" s="53"/>
+      <c r="D142" s="47"/>
       <c r="E142" s="40" t="s">
         <v>38</v>
       </c>
@@ -16605,7 +12970,7 @@
       <c r="Q142" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R142" s="53"/>
+      <c r="R142" s="47"/>
       <c r="S142" s="38" t="s">
         <v>30</v>
       </c>
@@ -16643,12 +13008,12 @@
       <c r="AE142" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF142" s="53"/>
+      <c r="AF142" s="47"/>
       <c r="AG142" s="38" t="s">
         <v>30</v>
       </c>
       <c r="AH142" s="33">
-        <f t="shared" ref="AH142:AH146" si="83">COUNTIF(C142:AG142, "P")</f>
+        <f t="shared" ref="AH142" si="83">COUNTIF(C142:AG142, "P")</f>
         <v>21</v>
       </c>
       <c r="AI142" s="33">
@@ -16666,7 +13031,7 @@
       <c r="C143" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D143" s="56"/>
+      <c r="D143" s="50"/>
       <c r="E143" s="42" t="s">
         <v>30</v>
       </c>
@@ -16685,7 +13050,7 @@
       <c r="J143" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K143" s="57"/>
+      <c r="K143" s="51"/>
       <c r="L143" s="42" t="s">
         <v>30</v>
       </c>
@@ -16704,7 +13069,7 @@
       <c r="Q143" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R143" s="57"/>
+      <c r="R143" s="51"/>
       <c r="S143" s="38" t="s">
         <v>30</v>
       </c>
@@ -16723,7 +13088,7 @@
       <c r="X143" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Y143" s="57"/>
+      <c r="Y143" s="51"/>
       <c r="Z143" s="38" t="s">
         <v>30</v>
       </c>
@@ -16742,12 +13107,12 @@
       <c r="AE143" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF143" s="53"/>
+      <c r="AF143" s="47"/>
       <c r="AG143" s="43" t="s">
         <v>38</v>
       </c>
       <c r="AH143" s="33">
-        <f t="shared" ref="AH143:AH147" si="84">COUNTIF(C143:AG143,"P")</f>
+        <f t="shared" ref="AH143" si="84">COUNTIF(C143:AG143,"P")</f>
         <v>17</v>
       </c>
       <c r="AI143" s="33">
@@ -16765,7 +13130,7 @@
       <c r="C144" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="57"/>
+      <c r="D144" s="51"/>
       <c r="E144" s="42" t="s">
         <v>30</v>
       </c>
@@ -16784,7 +13149,7 @@
       <c r="J144" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K144" s="57"/>
+      <c r="K144" s="51"/>
       <c r="L144" s="43" t="s">
         <v>38</v>
       </c>
@@ -16803,7 +13168,7 @@
       <c r="Q144" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="R144" s="56"/>
+      <c r="R144" s="50"/>
       <c r="S144" s="38" t="s">
         <v>30</v>
       </c>
@@ -16822,7 +13187,7 @@
       <c r="X144" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y144" s="57"/>
+      <c r="Y144" s="51"/>
       <c r="Z144" s="38" t="s">
         <v>30</v>
       </c>
@@ -16841,12 +13206,12 @@
       <c r="AE144" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF144" s="53"/>
+      <c r="AF144" s="47"/>
       <c r="AG144" s="42" t="s">
         <v>30</v>
       </c>
       <c r="AH144" s="33">
-        <f t="shared" ref="AH144:AH148" si="85">COUNTIF(C144:AG144, "P")</f>
+        <f t="shared" ref="AH144" si="85">COUNTIF(C144:AG144, "P")</f>
         <v>20</v>
       </c>
       <c r="AI144" s="33">
@@ -16864,7 +13229,7 @@
       <c r="C145" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D145" s="56"/>
+      <c r="D145" s="50"/>
       <c r="E145" s="42" t="s">
         <v>30</v>
       </c>
@@ -16883,7 +13248,7 @@
       <c r="J145" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K145" s="57"/>
+      <c r="K145" s="51"/>
       <c r="L145" s="42" t="s">
         <v>30</v>
       </c>
@@ -16902,7 +13267,7 @@
       <c r="Q145" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R145" s="56"/>
+      <c r="R145" s="50"/>
       <c r="S145" s="38" t="s">
         <v>30</v>
       </c>
@@ -16921,7 +13286,7 @@
       <c r="X145" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y145" s="56"/>
+      <c r="Y145" s="50"/>
       <c r="Z145" s="38" t="s">
         <v>30</v>
       </c>
@@ -16940,7 +13305,7 @@
       <c r="AE145" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF145" s="53"/>
+      <c r="AF145" s="47"/>
       <c r="AG145" s="42" t="s">
         <v>30</v>
       </c>
@@ -16963,7 +13328,7 @@
       <c r="C146" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D146" s="56"/>
+      <c r="D146" s="50"/>
       <c r="E146" s="42" t="s">
         <v>30</v>
       </c>
@@ -16982,7 +13347,7 @@
       <c r="J146" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K146" s="57"/>
+      <c r="K146" s="51"/>
       <c r="L146" s="42" t="s">
         <v>30</v>
       </c>
@@ -17001,7 +13366,7 @@
       <c r="Q146" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R146" s="56"/>
+      <c r="R146" s="50"/>
       <c r="S146" s="38" t="s">
         <v>30</v>
       </c>
@@ -17020,7 +13385,7 @@
       <c r="X146" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y146" s="57"/>
+      <c r="Y146" s="51"/>
       <c r="Z146" s="38" t="s">
         <v>30</v>
       </c>
@@ -17039,12 +13404,12 @@
       <c r="AE146" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF146" s="53"/>
+      <c r="AF146" s="47"/>
       <c r="AG146" s="43" t="s">
         <v>38</v>
       </c>
       <c r="AH146" s="33">
-        <f t="shared" ref="AH146:AH150" si="88">COUNTIF(C146:AG146, "P")</f>
+        <f t="shared" ref="AH146" si="88">COUNTIF(C146:AG146, "P")</f>
         <v>21</v>
       </c>
       <c r="AI146" s="33">
@@ -17062,7 +13427,7 @@
       <c r="C147" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D147" s="56"/>
+      <c r="D147" s="50"/>
       <c r="E147" s="42" t="s">
         <v>30</v>
       </c>
@@ -17081,7 +13446,7 @@
       <c r="J147" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K147" s="57"/>
+      <c r="K147" s="51"/>
       <c r="L147" s="42" t="s">
         <v>30</v>
       </c>
@@ -17100,7 +13465,7 @@
       <c r="Q147" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R147" s="56"/>
+      <c r="R147" s="50"/>
       <c r="S147" s="38" t="s">
         <v>30</v>
       </c>
@@ -17119,7 +13484,7 @@
       <c r="X147" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y147" s="56"/>
+      <c r="Y147" s="50"/>
       <c r="Z147" s="38" t="s">
         <v>30</v>
       </c>
@@ -17138,12 +13503,12 @@
       <c r="AE147" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF147" s="53"/>
+      <c r="AF147" s="47"/>
       <c r="AG147" s="42" t="s">
         <v>30</v>
       </c>
       <c r="AH147" s="33">
-        <f t="shared" ref="AH147:AH151" si="89">COUNTIF(C147:AG147,"P")</f>
+        <f t="shared" ref="AH147" si="89">COUNTIF(C147:AG147,"P")</f>
         <v>23</v>
       </c>
       <c r="AI147" s="33">
@@ -17161,7 +13526,7 @@
       <c r="C148" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D148" s="56"/>
+      <c r="D148" s="50"/>
       <c r="E148" s="42" t="s">
         <v>30</v>
       </c>
@@ -17180,7 +13545,7 @@
       <c r="J148" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K148" s="57"/>
+      <c r="K148" s="51"/>
       <c r="L148" s="42" t="s">
         <v>30</v>
       </c>
@@ -17199,7 +13564,7 @@
       <c r="Q148" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R148" s="56"/>
+      <c r="R148" s="50"/>
       <c r="S148" s="38" t="s">
         <v>30</v>
       </c>
@@ -17218,7 +13583,7 @@
       <c r="X148" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Y148" s="56"/>
+      <c r="Y148" s="50"/>
       <c r="Z148" s="38" t="s">
         <v>30</v>
       </c>
@@ -17242,7 +13607,7 @@
         <v>30</v>
       </c>
       <c r="AH148" s="33">
-        <f t="shared" ref="AH148:AH152" si="90">COUNTIF(C148:AG148, "P")</f>
+        <f t="shared" ref="AH148" si="90">COUNTIF(C148:AG148, "P")</f>
         <v>22</v>
       </c>
       <c r="AI148" s="33">
@@ -17260,7 +13625,7 @@
       <c r="C149" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D149" s="56"/>
+      <c r="D149" s="50"/>
       <c r="E149" s="42" t="s">
         <v>30</v>
       </c>
@@ -17279,7 +13644,7 @@
       <c r="J149" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K149" s="57"/>
+      <c r="K149" s="51"/>
       <c r="L149" s="42" t="s">
         <v>30</v>
       </c>
@@ -17298,7 +13663,7 @@
       <c r="Q149" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R149" s="56"/>
+      <c r="R149" s="50"/>
       <c r="S149" s="38" t="s">
         <v>30</v>
       </c>
@@ -17317,7 +13682,7 @@
       <c r="X149" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y149" s="56"/>
+      <c r="Y149" s="50"/>
       <c r="Z149" s="38" t="s">
         <v>30</v>
       </c>
@@ -17359,7 +13724,7 @@
       <c r="C150" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D150" s="56"/>
+      <c r="D150" s="50"/>
       <c r="E150" s="43" t="s">
         <v>38</v>
       </c>
@@ -17378,7 +13743,7 @@
       <c r="J150" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K150" s="57"/>
+      <c r="K150" s="51"/>
       <c r="L150" s="42" t="s">
         <v>30</v>
       </c>
@@ -17397,7 +13762,7 @@
       <c r="Q150" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R150" s="56"/>
+      <c r="R150" s="50"/>
       <c r="S150" s="38" t="s">
         <v>30</v>
       </c>
@@ -17416,7 +13781,7 @@
       <c r="X150" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Y150" s="56"/>
+      <c r="Y150" s="50"/>
       <c r="Z150" s="38" t="s">
         <v>30</v>
       </c>
@@ -17435,7 +13800,7 @@
       <c r="AE150" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF150" s="53"/>
+      <c r="AF150" s="47"/>
       <c r="AG150" s="43" t="s">
         <v>38</v>
       </c>
@@ -17458,7 +13823,7 @@
       <c r="C151" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D151" s="56"/>
+      <c r="D151" s="50"/>
       <c r="E151" s="43" t="s">
         <v>38</v>
       </c>
@@ -17477,7 +13842,7 @@
       <c r="J151" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K151" s="57"/>
+      <c r="K151" s="51"/>
       <c r="L151" s="42" t="s">
         <v>30</v>
       </c>
@@ -17496,7 +13861,7 @@
       <c r="Q151" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R151" s="56"/>
+      <c r="R151" s="50"/>
       <c r="S151" s="40" t="s">
         <v>38</v>
       </c>
@@ -17515,7 +13880,7 @@
       <c r="X151" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y151" s="56"/>
+      <c r="Y151" s="50"/>
       <c r="Z151" s="38" t="s">
         <v>30</v>
       </c>
@@ -17534,7 +13899,7 @@
       <c r="AE151" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AF151" s="53"/>
+      <c r="AF151" s="47"/>
       <c r="AG151" s="42" t="s">
         <v>30</v>
       </c>
@@ -17557,7 +13922,7 @@
       <c r="C152" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D152" s="56"/>
+      <c r="D152" s="50"/>
       <c r="E152" s="42" t="s">
         <v>30</v>
       </c>
@@ -17576,7 +13941,7 @@
       <c r="J152" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K152" s="57"/>
+      <c r="K152" s="51"/>
       <c r="L152" s="42" t="s">
         <v>30</v>
       </c>
@@ -17595,7 +13960,7 @@
       <c r="Q152" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R152" s="56"/>
+      <c r="R152" s="50"/>
       <c r="S152" s="38" t="s">
         <v>30</v>
       </c>
@@ -17614,7 +13979,7 @@
       <c r="X152" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y152" s="56"/>
+      <c r="Y152" s="50"/>
       <c r="Z152" s="38" t="s">
         <v>30</v>
       </c>
@@ -17633,7 +13998,7 @@
       <c r="AE152" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF152" s="53"/>
+      <c r="AF152" s="47"/>
       <c r="AG152" s="42" t="s">
         <v>30</v>
       </c>
@@ -17656,7 +14021,7 @@
       <c r="C153" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D153" s="56"/>
+      <c r="D153" s="50"/>
       <c r="E153" s="42" t="s">
         <v>30</v>
       </c>
@@ -17675,7 +14040,7 @@
       <c r="J153" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K153" s="57"/>
+      <c r="K153" s="51"/>
       <c r="L153" s="42" t="s">
         <v>30</v>
       </c>
@@ -17694,7 +14059,7 @@
       <c r="Q153" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="R153" s="56"/>
+      <c r="R153" s="50"/>
       <c r="S153" s="40" t="s">
         <v>38</v>
       </c>
@@ -17713,7 +14078,7 @@
       <c r="X153" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y153" s="57"/>
+      <c r="Y153" s="51"/>
       <c r="Z153" s="38" t="s">
         <v>30</v>
       </c>
@@ -17732,7 +14097,7 @@
       <c r="AE153" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AF153" s="53"/>
+      <c r="AF153" s="47"/>
       <c r="AG153" s="43" t="s">
         <v>38</v>
       </c>
@@ -17755,7 +14120,7 @@
       <c r="C154" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D154" s="56"/>
+      <c r="D154" s="50"/>
       <c r="E154" s="42" t="s">
         <v>30</v>
       </c>
@@ -17774,7 +14139,7 @@
       <c r="J154" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K154" s="57"/>
+      <c r="K154" s="51"/>
       <c r="L154" s="42" t="s">
         <v>30</v>
       </c>
@@ -17793,7 +14158,7 @@
       <c r="Q154" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R154" s="56"/>
+      <c r="R154" s="50"/>
       <c r="S154" s="38" t="s">
         <v>30</v>
       </c>
@@ -17812,7 +14177,7 @@
       <c r="X154" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y154" s="56"/>
+      <c r="Y154" s="50"/>
       <c r="Z154" s="38" t="s">
         <v>30</v>
       </c>
@@ -17831,7 +14196,7 @@
       <c r="AE154" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF154" s="53"/>
+      <c r="AF154" s="47"/>
       <c r="AG154" s="42" t="s">
         <v>30</v>
       </c>
@@ -17854,7 +14219,7 @@
       <c r="C155" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D155" s="56"/>
+      <c r="D155" s="50"/>
       <c r="E155" s="42" t="s">
         <v>30</v>
       </c>
@@ -17873,7 +14238,7 @@
       <c r="J155" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K155" s="57"/>
+      <c r="K155" s="51"/>
       <c r="L155" s="42" t="s">
         <v>30</v>
       </c>
@@ -17892,7 +14257,7 @@
       <c r="Q155" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R155" s="56"/>
+      <c r="R155" s="50"/>
       <c r="S155" s="38" t="s">
         <v>30</v>
       </c>
@@ -17911,7 +14276,7 @@
       <c r="X155" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y155" s="56"/>
+      <c r="Y155" s="50"/>
       <c r="Z155" s="38" t="s">
         <v>30</v>
       </c>
@@ -17930,7 +14295,7 @@
       <c r="AE155" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF155" s="53"/>
+      <c r="AF155" s="47"/>
       <c r="AG155" s="42" t="s">
         <v>30</v>
       </c>
@@ -17953,7 +14318,7 @@
       <c r="C156" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D156" s="56"/>
+      <c r="D156" s="50"/>
       <c r="E156" s="43" t="s">
         <v>38</v>
       </c>
@@ -17972,7 +14337,7 @@
       <c r="J156" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K156" s="57"/>
+      <c r="K156" s="51"/>
       <c r="L156" s="42" t="s">
         <v>30</v>
       </c>
@@ -17991,7 +14356,7 @@
       <c r="Q156" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R156" s="56"/>
+      <c r="R156" s="50"/>
       <c r="S156" s="38" t="s">
         <v>30</v>
       </c>
@@ -18010,7 +14375,7 @@
       <c r="X156" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y156" s="56"/>
+      <c r="Y156" s="50"/>
       <c r="Z156" s="38" t="s">
         <v>30</v>
       </c>
@@ -18029,7 +14394,7 @@
       <c r="AE156" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AF156" s="53"/>
+      <c r="AF156" s="47"/>
       <c r="AG156" s="42" t="s">
         <v>30</v>
       </c>
@@ -18043,41 +14408,41 @@
       </c>
     </row>
     <row r="162" spans="1:35" ht="33.6">
-      <c r="A162" s="51">
+      <c r="A162" s="54">
         <v>45139</v>
       </c>
-      <c r="B162" s="52"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="52"/>
-      <c r="E162" s="52"/>
-      <c r="F162" s="52"/>
-      <c r="G162" s="52"/>
-      <c r="H162" s="52"/>
-      <c r="I162" s="52"/>
-      <c r="J162" s="52"/>
-      <c r="K162" s="52"/>
-      <c r="L162" s="52"/>
-      <c r="M162" s="52"/>
-      <c r="N162" s="52"/>
-      <c r="O162" s="52"/>
-      <c r="P162" s="52"/>
-      <c r="Q162" s="52"/>
-      <c r="R162" s="52"/>
-      <c r="S162" s="52"/>
-      <c r="T162" s="52"/>
-      <c r="U162" s="52"/>
-      <c r="V162" s="52"/>
-      <c r="W162" s="52"/>
-      <c r="X162" s="52"/>
-      <c r="Y162" s="52"/>
-      <c r="Z162" s="52"/>
-      <c r="AA162" s="52"/>
-      <c r="AB162" s="52"/>
-      <c r="AC162" s="52"/>
-      <c r="AD162" s="52"/>
-      <c r="AE162" s="52"/>
-      <c r="AF162" s="52"/>
-      <c r="AG162" s="52"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="55"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="55"/>
+      <c r="F162" s="55"/>
+      <c r="G162" s="55"/>
+      <c r="H162" s="55"/>
+      <c r="I162" s="55"/>
+      <c r="J162" s="55"/>
+      <c r="K162" s="55"/>
+      <c r="L162" s="55"/>
+      <c r="M162" s="55"/>
+      <c r="N162" s="55"/>
+      <c r="O162" s="55"/>
+      <c r="P162" s="55"/>
+      <c r="Q162" s="55"/>
+      <c r="R162" s="55"/>
+      <c r="S162" s="55"/>
+      <c r="T162" s="55"/>
+      <c r="U162" s="55"/>
+      <c r="V162" s="55"/>
+      <c r="W162" s="55"/>
+      <c r="X162" s="55"/>
+      <c r="Y162" s="55"/>
+      <c r="Z162" s="55"/>
+      <c r="AA162" s="55"/>
+      <c r="AB162" s="55"/>
+      <c r="AC162" s="55"/>
+      <c r="AD162" s="55"/>
+      <c r="AE162" s="55"/>
+      <c r="AF162" s="55"/>
+      <c r="AG162" s="55"/>
       <c r="AH162" s="24"/>
       <c r="AI162" s="24"/>
     </row>
@@ -18309,7 +14674,7 @@
       <c r="G165" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H165" s="53"/>
+      <c r="H165" s="47"/>
       <c r="I165" s="38" t="s">
         <v>30</v>
       </c>
@@ -18328,7 +14693,7 @@
       <c r="N165" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="O165" s="53"/>
+      <c r="O165" s="47"/>
       <c r="P165" s="38" t="s">
         <v>30</v>
       </c>
@@ -18347,7 +14712,7 @@
       <c r="U165" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="V165" s="53"/>
+      <c r="V165" s="47"/>
       <c r="W165" s="38" t="s">
         <v>30</v>
       </c>
@@ -18366,7 +14731,7 @@
       <c r="AB165" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AC165" s="53"/>
+      <c r="AC165" s="47"/>
       <c r="AD165" s="38" t="s">
         <v>30</v>
       </c>
@@ -18380,7 +14745,7 @@
         <v>38</v>
       </c>
       <c r="AH165" s="33">
-        <f t="shared" ref="AH165:AH169" si="98">COUNTIF(C165:AG165, "P")</f>
+        <f t="shared" ref="AH165" si="98">COUNTIF(C165:AG165, "P")</f>
         <v>24</v>
       </c>
       <c r="AI165" s="33">
@@ -18410,7 +14775,7 @@
       <c r="G166" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H166" s="56"/>
+      <c r="H166" s="50"/>
       <c r="I166" s="43" t="s">
         <v>38</v>
       </c>
@@ -18429,7 +14794,7 @@
       <c r="N166" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O166" s="56"/>
+      <c r="O166" s="50"/>
       <c r="P166" s="43" t="s">
         <v>38</v>
       </c>
@@ -18448,7 +14813,7 @@
       <c r="U166" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V166" s="57"/>
+      <c r="V166" s="51"/>
       <c r="W166" s="38" t="s">
         <v>30</v>
       </c>
@@ -18467,7 +14832,7 @@
       <c r="AB166" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AC166" s="56"/>
+      <c r="AC166" s="50"/>
       <c r="AD166" s="38" t="s">
         <v>30</v>
       </c>
@@ -18481,7 +14846,7 @@
         <v>30</v>
       </c>
       <c r="AH166" s="33">
-        <f t="shared" ref="AH166:AH170" si="99">COUNTIF(C166:AG166,"P")</f>
+        <f t="shared" ref="AH166" si="99">COUNTIF(C166:AG166,"P")</f>
         <v>19</v>
       </c>
       <c r="AI166" s="33">
@@ -18511,7 +14876,7 @@
       <c r="G167" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H167" s="57"/>
+      <c r="H167" s="51"/>
       <c r="I167" s="42" t="s">
         <v>30</v>
       </c>
@@ -18530,7 +14895,7 @@
       <c r="N167" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O167" s="57"/>
+      <c r="O167" s="51"/>
       <c r="P167" s="42" t="s">
         <v>30</v>
       </c>
@@ -18549,7 +14914,7 @@
       <c r="U167" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V167" s="57"/>
+      <c r="V167" s="51"/>
       <c r="W167" s="38" t="s">
         <v>30</v>
       </c>
@@ -18568,7 +14933,7 @@
       <c r="AB167" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC167" s="56"/>
+      <c r="AC167" s="50"/>
       <c r="AD167" s="38" t="s">
         <v>30</v>
       </c>
@@ -18582,7 +14947,7 @@
         <v>30</v>
       </c>
       <c r="AH167" s="33">
-        <f t="shared" ref="AH167:AH171" si="100">COUNTIF(C167:AG167, "P")</f>
+        <f t="shared" ref="AH167" si="100">COUNTIF(C167:AG167, "P")</f>
         <v>22</v>
       </c>
       <c r="AI167" s="33">
@@ -18612,7 +14977,7 @@
       <c r="G168" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H168" s="56"/>
+      <c r="H168" s="50"/>
       <c r="I168" s="42" t="s">
         <v>30</v>
       </c>
@@ -18631,7 +14996,7 @@
       <c r="N168" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O168" s="56"/>
+      <c r="O168" s="50"/>
       <c r="P168" s="42" t="s">
         <v>30</v>
       </c>
@@ -18650,7 +15015,7 @@
       <c r="U168" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V168" s="56"/>
+      <c r="V168" s="50"/>
       <c r="W168" s="38" t="s">
         <v>30</v>
       </c>
@@ -18669,7 +15034,7 @@
       <c r="AB168" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC168" s="56"/>
+      <c r="AC168" s="50"/>
       <c r="AD168" s="38" t="s">
         <v>30</v>
       </c>
@@ -18713,7 +15078,7 @@
       <c r="G169" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H169" s="56"/>
+      <c r="H169" s="50"/>
       <c r="I169" s="42" t="s">
         <v>30</v>
       </c>
@@ -18732,7 +15097,7 @@
       <c r="N169" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O169" s="57"/>
+      <c r="O169" s="51"/>
       <c r="P169" s="42" t="s">
         <v>30</v>
       </c>
@@ -18751,7 +15116,7 @@
       <c r="U169" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V169" s="56"/>
+      <c r="V169" s="50"/>
       <c r="W169" s="38" t="s">
         <v>30</v>
       </c>
@@ -18770,7 +15135,7 @@
       <c r="AB169" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AC169" s="56"/>
+      <c r="AC169" s="50"/>
       <c r="AD169" s="38" t="s">
         <v>30</v>
       </c>
@@ -18784,7 +15149,7 @@
         <v>30</v>
       </c>
       <c r="AH169" s="33">
-        <f t="shared" ref="AH169:AH173" si="103">COUNTIF(C169:AG169, "P")</f>
+        <f t="shared" ref="AH169" si="103">COUNTIF(C169:AG169, "P")</f>
         <v>23</v>
       </c>
       <c r="AI169" s="33">
@@ -18814,7 +15179,7 @@
       <c r="G170" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H170" s="56"/>
+      <c r="H170" s="50"/>
       <c r="I170" s="42" t="s">
         <v>30</v>
       </c>
@@ -18833,7 +15198,7 @@
       <c r="N170" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O170" s="57"/>
+      <c r="O170" s="51"/>
       <c r="P170" s="42" t="s">
         <v>30</v>
       </c>
@@ -18852,7 +15217,7 @@
       <c r="U170" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V170" s="56"/>
+      <c r="V170" s="50"/>
       <c r="W170" s="40" t="s">
         <v>38</v>
       </c>
@@ -18871,7 +15236,7 @@
       <c r="AB170" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC170" s="56"/>
+      <c r="AC170" s="50"/>
       <c r="AD170" s="38" t="s">
         <v>30</v>
       </c>
@@ -18885,7 +15250,7 @@
         <v>30</v>
       </c>
       <c r="AH170" s="33">
-        <f t="shared" ref="AH170:AH174" si="104">COUNTIF(C170:AG170,"P")</f>
+        <f t="shared" ref="AH170" si="104">COUNTIF(C170:AG170,"P")</f>
         <v>25</v>
       </c>
       <c r="AI170" s="33">
@@ -18915,7 +15280,7 @@
       <c r="G171" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H171" s="56"/>
+      <c r="H171" s="50"/>
       <c r="I171" s="43" t="s">
         <v>38</v>
       </c>
@@ -18934,7 +15299,7 @@
       <c r="N171" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O171" s="56"/>
+      <c r="O171" s="50"/>
       <c r="P171" s="43" t="s">
         <v>38</v>
       </c>
@@ -18953,7 +15318,7 @@
       <c r="U171" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V171" s="56"/>
+      <c r="V171" s="50"/>
       <c r="W171" s="40" t="s">
         <v>38</v>
       </c>
@@ -18972,7 +15337,7 @@
       <c r="AB171" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC171" s="56"/>
+      <c r="AC171" s="50"/>
       <c r="AD171" s="38" t="s">
         <v>30</v>
       </c>
@@ -18986,7 +15351,7 @@
         <v>38</v>
       </c>
       <c r="AH171" s="33">
-        <f t="shared" ref="AH171:AH175" si="105">COUNTIF(C171:AG171, "P")</f>
+        <f t="shared" ref="AH171" si="105">COUNTIF(C171:AG171, "P")</f>
         <v>19</v>
       </c>
       <c r="AI171" s="33">
@@ -19016,7 +15381,7 @@
       <c r="G172" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H172" s="56"/>
+      <c r="H172" s="50"/>
       <c r="I172" s="42" t="s">
         <v>30</v>
       </c>
@@ -19035,7 +15400,7 @@
       <c r="N172" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O172" s="57"/>
+      <c r="O172" s="51"/>
       <c r="P172" s="42" t="s">
         <v>30</v>
       </c>
@@ -19054,7 +15419,7 @@
       <c r="U172" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="V172" s="56"/>
+      <c r="V172" s="50"/>
       <c r="W172" s="38" t="s">
         <v>30</v>
       </c>
@@ -19073,7 +15438,7 @@
       <c r="AB172" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC172" s="56"/>
+      <c r="AC172" s="50"/>
       <c r="AD172" s="38" t="s">
         <v>30</v>
       </c>
@@ -19117,7 +15482,7 @@
       <c r="G173" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H173" s="56"/>
+      <c r="H173" s="50"/>
       <c r="I173" s="43" t="s">
         <v>38</v>
       </c>
@@ -19136,7 +15501,7 @@
       <c r="N173" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O173" s="56"/>
+      <c r="O173" s="50"/>
       <c r="P173" s="42" t="s">
         <v>30</v>
       </c>
@@ -19155,7 +15520,7 @@
       <c r="U173" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V173" s="56"/>
+      <c r="V173" s="50"/>
       <c r="W173" s="40" t="s">
         <v>38</v>
       </c>
@@ -19174,7 +15539,7 @@
       <c r="AB173" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AC173" s="56"/>
+      <c r="AC173" s="50"/>
       <c r="AD173" s="38" t="s">
         <v>30</v>
       </c>
@@ -19218,7 +15583,7 @@
       <c r="G174" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H174" s="56"/>
+      <c r="H174" s="50"/>
       <c r="I174" s="42" t="s">
         <v>30</v>
       </c>
@@ -19237,7 +15602,7 @@
       <c r="N174" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O174" s="56"/>
+      <c r="O174" s="50"/>
       <c r="P174" s="42" t="s">
         <v>30</v>
       </c>
@@ -19256,7 +15621,7 @@
       <c r="U174" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="V174" s="56"/>
+      <c r="V174" s="50"/>
       <c r="W174" s="38" t="s">
         <v>30</v>
       </c>
@@ -19275,7 +15640,7 @@
       <c r="AB174" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC174" s="57"/>
+      <c r="AC174" s="51"/>
       <c r="AD174" s="40" t="s">
         <v>38</v>
       </c>
@@ -19319,7 +15684,7 @@
       <c r="G175" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H175" s="56"/>
+      <c r="H175" s="50"/>
       <c r="I175" s="42" t="s">
         <v>30</v>
       </c>
@@ -19338,7 +15703,7 @@
       <c r="N175" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="O175" s="56"/>
+      <c r="O175" s="50"/>
       <c r="P175" s="42" t="s">
         <v>30</v>
       </c>
@@ -19357,7 +15722,7 @@
       <c r="U175" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V175" s="56"/>
+      <c r="V175" s="50"/>
       <c r="W175" s="40" t="s">
         <v>38</v>
       </c>
@@ -19376,7 +15741,7 @@
       <c r="AB175" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC175" s="56"/>
+      <c r="AC175" s="50"/>
       <c r="AD175" s="38" t="s">
         <v>30</v>
       </c>
@@ -19420,7 +15785,7 @@
       <c r="G176" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H176" s="56"/>
+      <c r="H176" s="50"/>
       <c r="I176" s="42" t="s">
         <v>30</v>
       </c>
@@ -19439,7 +15804,7 @@
       <c r="N176" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O176" s="56"/>
+      <c r="O176" s="50"/>
       <c r="P176" s="42" t="s">
         <v>30</v>
       </c>
@@ -19458,7 +15823,7 @@
       <c r="U176" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V176" s="56"/>
+      <c r="V176" s="50"/>
       <c r="W176" s="38" t="s">
         <v>30</v>
       </c>
@@ -19477,7 +15842,7 @@
       <c r="AB176" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AC176" s="56"/>
+      <c r="AC176" s="50"/>
       <c r="AD176" s="40" t="s">
         <v>38</v>
       </c>
@@ -19521,7 +15886,7 @@
       <c r="G177" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H177" s="56"/>
+      <c r="H177" s="50"/>
       <c r="I177" s="42" t="s">
         <v>30</v>
       </c>
@@ -19540,7 +15905,7 @@
       <c r="N177" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="O177" s="56"/>
+      <c r="O177" s="50"/>
       <c r="P177" s="43" t="s">
         <v>38</v>
       </c>
@@ -19559,7 +15924,7 @@
       <c r="U177" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V177" s="56"/>
+      <c r="V177" s="50"/>
       <c r="W177" s="38" t="s">
         <v>30</v>
       </c>
@@ -19578,7 +15943,7 @@
       <c r="AB177" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC177" s="56"/>
+      <c r="AC177" s="50"/>
       <c r="AD177" s="38" t="s">
         <v>30</v>
       </c>
@@ -19622,7 +15987,7 @@
       <c r="G178" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H178" s="56"/>
+      <c r="H178" s="50"/>
       <c r="I178" s="42" t="s">
         <v>30</v>
       </c>
@@ -19641,7 +16006,7 @@
       <c r="N178" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O178" s="57"/>
+      <c r="O178" s="51"/>
       <c r="P178" s="43" t="s">
         <v>38</v>
       </c>
@@ -19660,7 +16025,7 @@
       <c r="U178" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V178" s="56"/>
+      <c r="V178" s="50"/>
       <c r="W178" s="38" t="s">
         <v>30</v>
       </c>
@@ -19679,7 +16044,7 @@
       <c r="AB178" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC178" s="56"/>
+      <c r="AC178" s="50"/>
       <c r="AD178" s="38" t="s">
         <v>30</v>
       </c>
@@ -19723,7 +16088,7 @@
       <c r="G179" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H179" s="56"/>
+      <c r="H179" s="50"/>
       <c r="I179" s="42" t="s">
         <v>30</v>
       </c>
@@ -19742,7 +16107,7 @@
       <c r="N179" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O179" s="56"/>
+      <c r="O179" s="50"/>
       <c r="P179" s="42" t="s">
         <v>30</v>
       </c>
@@ -19761,7 +16126,7 @@
       <c r="U179" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="V179" s="56"/>
+      <c r="V179" s="50"/>
       <c r="W179" s="38" t="s">
         <v>30</v>
       </c>
@@ -19780,7 +16145,7 @@
       <c r="AB179" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AC179" s="56"/>
+      <c r="AC179" s="50"/>
       <c r="AD179" s="38" t="s">
         <v>30</v>
       </c>
@@ -19803,41 +16168,41 @@
       </c>
     </row>
     <row r="185" spans="1:35" ht="33.6">
-      <c r="A185" s="51">
+      <c r="A185" s="54">
         <v>45170</v>
       </c>
-      <c r="B185" s="52"/>
-      <c r="C185" s="52"/>
-      <c r="D185" s="52"/>
-      <c r="E185" s="52"/>
-      <c r="F185" s="52"/>
-      <c r="G185" s="52"/>
-      <c r="H185" s="52"/>
-      <c r="I185" s="52"/>
-      <c r="J185" s="52"/>
-      <c r="K185" s="52"/>
-      <c r="L185" s="52"/>
-      <c r="M185" s="52"/>
-      <c r="N185" s="52"/>
-      <c r="O185" s="52"/>
-      <c r="P185" s="52"/>
-      <c r="Q185" s="52"/>
-      <c r="R185" s="52"/>
-      <c r="S185" s="52"/>
-      <c r="T185" s="52"/>
-      <c r="U185" s="52"/>
-      <c r="V185" s="52"/>
-      <c r="W185" s="52"/>
-      <c r="X185" s="52"/>
-      <c r="Y185" s="52"/>
-      <c r="Z185" s="52"/>
-      <c r="AA185" s="52"/>
-      <c r="AB185" s="52"/>
-      <c r="AC185" s="52"/>
-      <c r="AD185" s="52"/>
-      <c r="AE185" s="52"/>
-      <c r="AF185" s="52"/>
-      <c r="AG185" s="52"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="55"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="55"/>
+      <c r="J185" s="55"/>
+      <c r="K185" s="55"/>
+      <c r="L185" s="55"/>
+      <c r="M185" s="55"/>
+      <c r="N185" s="55"/>
+      <c r="O185" s="55"/>
+      <c r="P185" s="55"/>
+      <c r="Q185" s="55"/>
+      <c r="R185" s="55"/>
+      <c r="S185" s="55"/>
+      <c r="T185" s="55"/>
+      <c r="U185" s="55"/>
+      <c r="V185" s="55"/>
+      <c r="W185" s="55"/>
+      <c r="X185" s="55"/>
+      <c r="Y185" s="55"/>
+      <c r="Z185" s="55"/>
+      <c r="AA185" s="55"/>
+      <c r="AB185" s="55"/>
+      <c r="AC185" s="55"/>
+      <c r="AD185" s="55"/>
+      <c r="AE185" s="55"/>
+      <c r="AF185" s="55"/>
+      <c r="AG185" s="55"/>
       <c r="AH185" s="24"/>
       <c r="AI185" s="24"/>
     </row>
@@ -20058,7 +16423,7 @@
       <c r="D188" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E188" s="53"/>
+      <c r="E188" s="47"/>
       <c r="F188" s="38" t="s">
         <v>30</v>
       </c>
@@ -20077,7 +16442,7 @@
       <c r="K188" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L188" s="53"/>
+      <c r="L188" s="47"/>
       <c r="M188" s="40" t="s">
         <v>38</v>
       </c>
@@ -20096,7 +16461,7 @@
       <c r="R188" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="S188" s="53"/>
+      <c r="S188" s="47"/>
       <c r="T188" s="40" t="s">
         <v>38</v>
       </c>
@@ -20115,7 +16480,7 @@
       <c r="Y188" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z188" s="53"/>
+      <c r="Z188" s="47"/>
       <c r="AA188" s="38" t="s">
         <v>30</v>
       </c>
@@ -20136,7 +16501,7 @@
       </c>
       <c r="AG188" s="38"/>
       <c r="AH188" s="33">
-        <f t="shared" ref="AH188:AH192" si="113">COUNTIF(C188:AG188, "P")</f>
+        <f t="shared" ref="AH188" si="113">COUNTIF(C188:AG188, "P")</f>
         <v>20</v>
       </c>
       <c r="AI188" s="33">
@@ -20157,7 +16522,7 @@
       <c r="D189" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E189" s="56"/>
+      <c r="E189" s="50"/>
       <c r="F189" s="43" t="s">
         <v>38</v>
       </c>
@@ -20176,7 +16541,7 @@
       <c r="K189" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L189" s="57"/>
+      <c r="L189" s="51"/>
       <c r="M189" s="43" t="s">
         <v>38</v>
       </c>
@@ -20195,7 +16560,7 @@
       <c r="R189" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S189" s="56"/>
+      <c r="S189" s="50"/>
       <c r="T189" s="42" t="s">
         <v>30</v>
       </c>
@@ -20214,7 +16579,7 @@
       <c r="Y189" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z189" s="56"/>
+      <c r="Z189" s="50"/>
       <c r="AA189" s="42" t="s">
         <v>30</v>
       </c>
@@ -20235,7 +16600,7 @@
       </c>
       <c r="AG189" s="42"/>
       <c r="AH189" s="33">
-        <f t="shared" ref="AH189:AH193" si="114">COUNTIF(C189:AG189,"P")</f>
+        <f t="shared" ref="AH189" si="114">COUNTIF(C189:AG189,"P")</f>
         <v>20</v>
       </c>
       <c r="AI189" s="33">
@@ -20256,7 +16621,7 @@
       <c r="D190" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E190" s="56"/>
+      <c r="E190" s="50"/>
       <c r="F190" s="42" t="s">
         <v>30</v>
       </c>
@@ -20275,7 +16640,7 @@
       <c r="K190" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L190" s="57"/>
+      <c r="L190" s="51"/>
       <c r="M190" s="43" t="s">
         <v>38</v>
       </c>
@@ -20294,7 +16659,7 @@
       <c r="R190" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S190" s="56"/>
+      <c r="S190" s="50"/>
       <c r="T190" s="42" t="s">
         <v>30</v>
       </c>
@@ -20313,7 +16678,7 @@
       <c r="Y190" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z190" s="56"/>
+      <c r="Z190" s="50"/>
       <c r="AA190" s="42" t="s">
         <v>30</v>
       </c>
@@ -20334,7 +16699,7 @@
       </c>
       <c r="AG190" s="42"/>
       <c r="AH190" s="33">
-        <f t="shared" ref="AH190:AH194" si="115">COUNTIF(C190:AG190, "P")</f>
+        <f t="shared" ref="AH190" si="115">COUNTIF(C190:AG190, "P")</f>
         <v>21</v>
       </c>
       <c r="AI190" s="33">
@@ -20355,7 +16720,7 @@
       <c r="D191" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="56"/>
+      <c r="E191" s="50"/>
       <c r="F191" s="42" t="s">
         <v>30</v>
       </c>
@@ -20374,7 +16739,7 @@
       <c r="K191" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L191" s="56"/>
+      <c r="L191" s="50"/>
       <c r="M191" s="42" t="s">
         <v>30</v>
       </c>
@@ -20393,7 +16758,7 @@
       <c r="R191" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S191" s="56"/>
+      <c r="S191" s="50"/>
       <c r="T191" s="42" t="s">
         <v>30</v>
       </c>
@@ -20412,7 +16777,7 @@
       <c r="Y191" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z191" s="56"/>
+      <c r="Z191" s="50"/>
       <c r="AA191" s="42" t="s">
         <v>30</v>
       </c>
@@ -20454,7 +16819,7 @@
       <c r="D192" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E192" s="57"/>
+      <c r="E192" s="51"/>
       <c r="F192" s="42" t="s">
         <v>30</v>
       </c>
@@ -20473,7 +16838,7 @@
       <c r="K192" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L192" s="56"/>
+      <c r="L192" s="50"/>
       <c r="M192" s="43" t="s">
         <v>38</v>
       </c>
@@ -20492,7 +16857,7 @@
       <c r="R192" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S192" s="56"/>
+      <c r="S192" s="50"/>
       <c r="T192" s="42" t="s">
         <v>30</v>
       </c>
@@ -20511,7 +16876,7 @@
       <c r="Y192" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z192" s="56"/>
+      <c r="Z192" s="50"/>
       <c r="AA192" s="42" t="s">
         <v>30</v>
       </c>
@@ -20532,7 +16897,7 @@
       </c>
       <c r="AG192" s="42"/>
       <c r="AH192" s="33">
-        <f t="shared" ref="AH192:AH196" si="118">COUNTIF(C192:AG192, "P")</f>
+        <f t="shared" ref="AH192" si="118">COUNTIF(C192:AG192, "P")</f>
         <v>23</v>
       </c>
       <c r="AI192" s="33">
@@ -20553,7 +16918,7 @@
       <c r="D193" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E193" s="57"/>
+      <c r="E193" s="51"/>
       <c r="F193" s="42" t="s">
         <v>30</v>
       </c>
@@ -20572,7 +16937,7 @@
       <c r="K193" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L193" s="56"/>
+      <c r="L193" s="50"/>
       <c r="M193" s="42" t="s">
         <v>30</v>
       </c>
@@ -20591,7 +16956,7 @@
       <c r="R193" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S193" s="56"/>
+      <c r="S193" s="50"/>
       <c r="T193" s="42" t="s">
         <v>30</v>
       </c>
@@ -20610,7 +16975,7 @@
       <c r="Y193" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z193" s="57"/>
+      <c r="Z193" s="51"/>
       <c r="AA193" s="42" t="s">
         <v>30</v>
       </c>
@@ -20631,7 +16996,7 @@
       </c>
       <c r="AG193" s="42"/>
       <c r="AH193" s="33">
-        <f t="shared" ref="AH193:AH197" si="119">COUNTIF(C193:AG193,"P")</f>
+        <f t="shared" ref="AH193" si="119">COUNTIF(C193:AG193,"P")</f>
         <v>22</v>
       </c>
       <c r="AI193" s="33">
@@ -20652,7 +17017,7 @@
       <c r="D194" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E194" s="56"/>
+      <c r="E194" s="50"/>
       <c r="F194" s="42" t="s">
         <v>30</v>
       </c>
@@ -20671,7 +17036,7 @@
       <c r="K194" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L194" s="56"/>
+      <c r="L194" s="50"/>
       <c r="M194" s="42" t="s">
         <v>30</v>
       </c>
@@ -20690,7 +17055,7 @@
       <c r="R194" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S194" s="56"/>
+      <c r="S194" s="50"/>
       <c r="T194" s="42" t="s">
         <v>30</v>
       </c>
@@ -20709,7 +17074,7 @@
       <c r="Y194" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z194" s="56"/>
+      <c r="Z194" s="50"/>
       <c r="AA194" s="42" t="s">
         <v>30</v>
       </c>
@@ -20730,7 +17095,7 @@
       </c>
       <c r="AG194" s="42"/>
       <c r="AH194" s="33">
-        <f t="shared" ref="AH194:AH198" si="120">COUNTIF(C194:AG194, "P")</f>
+        <f t="shared" ref="AH194" si="120">COUNTIF(C194:AG194, "P")</f>
         <v>25</v>
       </c>
       <c r="AI194" s="33">
@@ -20751,7 +17116,7 @@
       <c r="D195" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E195" s="56"/>
+      <c r="E195" s="50"/>
       <c r="F195" s="43" t="s">
         <v>38</v>
       </c>
@@ -20770,7 +17135,7 @@
       <c r="K195" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L195" s="56"/>
+      <c r="L195" s="50"/>
       <c r="M195" s="42" t="s">
         <v>30</v>
       </c>
@@ -20789,7 +17154,7 @@
       <c r="R195" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S195" s="56"/>
+      <c r="S195" s="50"/>
       <c r="T195" s="42" t="s">
         <v>30</v>
       </c>
@@ -20808,7 +17173,7 @@
       <c r="Y195" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Z195" s="56"/>
+      <c r="Z195" s="50"/>
       <c r="AA195" s="42" t="s">
         <v>30</v>
       </c>
@@ -20850,7 +17215,7 @@
       <c r="D196" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E196" s="56"/>
+      <c r="E196" s="50"/>
       <c r="F196" s="42" t="s">
         <v>30</v>
       </c>
@@ -20869,7 +17234,7 @@
       <c r="K196" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L196" s="56"/>
+      <c r="L196" s="50"/>
       <c r="M196" s="42" t="s">
         <v>30</v>
       </c>
@@ -20888,7 +17253,7 @@
       <c r="R196" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S196" s="56"/>
+      <c r="S196" s="50"/>
       <c r="T196" s="43" t="s">
         <v>38</v>
       </c>
@@ -20907,7 +17272,7 @@
       <c r="Y196" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z196" s="56"/>
+      <c r="Z196" s="50"/>
       <c r="AA196" s="42" t="s">
         <v>30</v>
       </c>
@@ -20949,7 +17314,7 @@
       <c r="D197" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E197" s="56"/>
+      <c r="E197" s="50"/>
       <c r="F197" s="42" t="s">
         <v>30</v>
       </c>
@@ -20968,7 +17333,7 @@
       <c r="K197" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L197" s="56"/>
+      <c r="L197" s="50"/>
       <c r="M197" s="42" t="s">
         <v>30</v>
       </c>
@@ -20987,7 +17352,7 @@
       <c r="R197" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S197" s="56"/>
+      <c r="S197" s="50"/>
       <c r="T197" s="43" t="s">
         <v>38</v>
       </c>
@@ -21006,7 +17371,7 @@
       <c r="Y197" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Z197" s="56"/>
+      <c r="Z197" s="50"/>
       <c r="AA197" s="43" t="s">
         <v>38</v>
       </c>
@@ -21048,7 +17413,7 @@
       <c r="D198" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E198" s="56"/>
+      <c r="E198" s="50"/>
       <c r="F198" s="43" t="s">
         <v>38</v>
       </c>
@@ -21067,7 +17432,7 @@
       <c r="K198" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L198" s="56"/>
+      <c r="L198" s="50"/>
       <c r="M198" s="42" t="s">
         <v>30</v>
       </c>
@@ -21086,7 +17451,7 @@
       <c r="R198" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="S198" s="57"/>
+      <c r="S198" s="51"/>
       <c r="T198" s="42" t="s">
         <v>30</v>
       </c>
@@ -21105,7 +17470,7 @@
       <c r="Y198" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z198" s="56"/>
+      <c r="Z198" s="50"/>
       <c r="AA198" s="42" t="s">
         <v>30</v>
       </c>
@@ -21147,7 +17512,7 @@
       <c r="D199" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E199" s="56"/>
+      <c r="E199" s="50"/>
       <c r="F199" s="42" t="s">
         <v>30</v>
       </c>
@@ -21166,7 +17531,7 @@
       <c r="K199" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L199" s="57"/>
+      <c r="L199" s="51"/>
       <c r="M199" s="43" t="s">
         <v>38</v>
       </c>
@@ -21185,7 +17550,7 @@
       <c r="R199" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S199" s="56"/>
+      <c r="S199" s="50"/>
       <c r="T199" s="42" t="s">
         <v>30</v>
       </c>
@@ -21204,7 +17569,7 @@
       <c r="Y199" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z199" s="56"/>
+      <c r="Z199" s="50"/>
       <c r="AA199" s="42" t="s">
         <v>30</v>
       </c>
@@ -21246,7 +17611,7 @@
       <c r="D200" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E200" s="56"/>
+      <c r="E200" s="50"/>
       <c r="F200" s="43" t="s">
         <v>38</v>
       </c>
@@ -21265,7 +17630,7 @@
       <c r="K200" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L200" s="56"/>
+      <c r="L200" s="50"/>
       <c r="M200" s="42" t="s">
         <v>30</v>
       </c>
@@ -21284,7 +17649,7 @@
       <c r="R200" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S200" s="56"/>
+      <c r="S200" s="50"/>
       <c r="T200" s="42" t="s">
         <v>30</v>
       </c>
@@ -21303,7 +17668,7 @@
       <c r="Y200" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z200" s="56"/>
+      <c r="Z200" s="50"/>
       <c r="AA200" s="42" t="s">
         <v>30</v>
       </c>
@@ -21345,7 +17710,7 @@
       <c r="D201" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E201" s="56"/>
+      <c r="E201" s="50"/>
       <c r="F201" s="42" t="s">
         <v>30</v>
       </c>
@@ -21364,7 +17729,7 @@
       <c r="K201" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L201" s="56"/>
+      <c r="L201" s="50"/>
       <c r="M201" s="42" t="s">
         <v>30</v>
       </c>
@@ -21383,7 +17748,7 @@
       <c r="R201" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S201" s="56"/>
+      <c r="S201" s="50"/>
       <c r="T201" s="42" t="s">
         <v>30</v>
       </c>
@@ -21402,7 +17767,7 @@
       <c r="Y201" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Z201" s="57"/>
+      <c r="Z201" s="51"/>
       <c r="AA201" s="43" t="s">
         <v>38</v>
       </c>
@@ -21444,7 +17809,7 @@
       <c r="D202" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E202" s="56"/>
+      <c r="E202" s="50"/>
       <c r="F202" s="42" t="s">
         <v>30</v>
       </c>
@@ -21463,7 +17828,7 @@
       <c r="K202" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L202" s="56"/>
+      <c r="L202" s="50"/>
       <c r="M202" s="42" t="s">
         <v>38</v>
       </c>
@@ -21482,7 +17847,7 @@
       <c r="R202" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S202" s="56"/>
+      <c r="S202" s="50"/>
       <c r="T202" s="43" t="s">
         <v>38</v>
       </c>
@@ -21501,7 +17866,7 @@
       <c r="Y202" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z202" s="56"/>
+      <c r="Z202" s="50"/>
       <c r="AA202" s="42" t="s">
         <v>30</v>
       </c>
@@ -21531,41 +17896,41 @@
       </c>
     </row>
     <row r="208" spans="1:35" ht="33.6">
-      <c r="A208" s="51">
+      <c r="A208" s="54">
         <v>45200</v>
       </c>
-      <c r="B208" s="52"/>
-      <c r="C208" s="52"/>
-      <c r="D208" s="52"/>
-      <c r="E208" s="52"/>
-      <c r="F208" s="52"/>
-      <c r="G208" s="52"/>
-      <c r="H208" s="52"/>
-      <c r="I208" s="52"/>
-      <c r="J208" s="52"/>
-      <c r="K208" s="52"/>
-      <c r="L208" s="52"/>
-      <c r="M208" s="52"/>
-      <c r="N208" s="52"/>
-      <c r="O208" s="52"/>
-      <c r="P208" s="52"/>
-      <c r="Q208" s="52"/>
-      <c r="R208" s="52"/>
-      <c r="S208" s="52"/>
-      <c r="T208" s="52"/>
-      <c r="U208" s="52"/>
-      <c r="V208" s="52"/>
-      <c r="W208" s="52"/>
-      <c r="X208" s="52"/>
-      <c r="Y208" s="52"/>
-      <c r="Z208" s="52"/>
-      <c r="AA208" s="52"/>
-      <c r="AB208" s="52"/>
-      <c r="AC208" s="52"/>
-      <c r="AD208" s="52"/>
-      <c r="AE208" s="52"/>
-      <c r="AF208" s="52"/>
-      <c r="AG208" s="52"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="55"/>
+      <c r="D208" s="55"/>
+      <c r="E208" s="55"/>
+      <c r="F208" s="55"/>
+      <c r="G208" s="55"/>
+      <c r="H208" s="55"/>
+      <c r="I208" s="55"/>
+      <c r="J208" s="55"/>
+      <c r="K208" s="55"/>
+      <c r="L208" s="55"/>
+      <c r="M208" s="55"/>
+      <c r="N208" s="55"/>
+      <c r="O208" s="55"/>
+      <c r="P208" s="55"/>
+      <c r="Q208" s="55"/>
+      <c r="R208" s="55"/>
+      <c r="S208" s="55"/>
+      <c r="T208" s="55"/>
+      <c r="U208" s="55"/>
+      <c r="V208" s="55"/>
+      <c r="W208" s="55"/>
+      <c r="X208" s="55"/>
+      <c r="Y208" s="55"/>
+      <c r="Z208" s="55"/>
+      <c r="AA208" s="55"/>
+      <c r="AB208" s="55"/>
+      <c r="AC208" s="55"/>
+      <c r="AD208" s="55"/>
+      <c r="AE208" s="55"/>
+      <c r="AF208" s="55"/>
+      <c r="AG208" s="55"/>
       <c r="AH208" s="24"/>
       <c r="AI208" s="24"/>
     </row>
@@ -21866,7 +18231,7 @@
         <v>30</v>
       </c>
       <c r="AH211" s="33">
-        <f t="shared" ref="AH211:AH215" si="128">COUNTIF(C211:AG211, "P")</f>
+        <f t="shared" ref="AH211" si="128">COUNTIF(C211:AG211, "P")</f>
         <v>19</v>
       </c>
       <c r="AI211" s="33">
@@ -21965,7 +18330,7 @@
         <v>30</v>
       </c>
       <c r="AH212" s="33">
-        <f t="shared" ref="AH212:AH216" si="129">COUNTIF(C212:AG212,"P")</f>
+        <f t="shared" ref="AH212" si="129">COUNTIF(C212:AG212,"P")</f>
         <v>20</v>
       </c>
       <c r="AI212" s="33">
@@ -22064,7 +18429,7 @@
         <v>30</v>
       </c>
       <c r="AH213" s="33">
-        <f t="shared" ref="AH213:AH217" si="130">COUNTIF(C213:AG213, "P")</f>
+        <f t="shared" ref="AH213" si="130">COUNTIF(C213:AG213, "P")</f>
         <v>23</v>
       </c>
       <c r="AI213" s="33">
@@ -22262,7 +18627,7 @@
         <v>30</v>
       </c>
       <c r="AH215" s="33">
-        <f t="shared" ref="AH215:AH219" si="133">COUNTIF(C215:AG215, "P")</f>
+        <f t="shared" ref="AH215" si="133">COUNTIF(C215:AG215, "P")</f>
         <v>23</v>
       </c>
       <c r="AI215" s="33">
@@ -22361,7 +18726,7 @@
         <v>30</v>
       </c>
       <c r="AH216" s="33">
-        <f t="shared" ref="AH216:AH220" si="134">COUNTIF(C216:AG216,"P")</f>
+        <f t="shared" ref="AH216" si="134">COUNTIF(C216:AG216,"P")</f>
         <v>21</v>
       </c>
       <c r="AI216" s="33">
@@ -22460,7 +18825,7 @@
         <v>30</v>
       </c>
       <c r="AH217" s="33">
-        <f t="shared" ref="AH217:AH221" si="135">COUNTIF(C217:AG217, "P")</f>
+        <f t="shared" ref="AH217" si="135">COUNTIF(C217:AG217, "P")</f>
         <v>23</v>
       </c>
       <c r="AI217" s="33">
@@ -23263,41 +19628,41 @@
       </c>
     </row>
     <row r="231" spans="1:35" ht="33.6">
-      <c r="A231" s="51">
+      <c r="A231" s="54">
         <v>45231</v>
       </c>
-      <c r="B231" s="52"/>
-      <c r="C231" s="52"/>
-      <c r="D231" s="52"/>
-      <c r="E231" s="52"/>
-      <c r="F231" s="52"/>
-      <c r="G231" s="52"/>
-      <c r="H231" s="52"/>
-      <c r="I231" s="52"/>
-      <c r="J231" s="52"/>
-      <c r="K231" s="52"/>
-      <c r="L231" s="52"/>
-      <c r="M231" s="52"/>
-      <c r="N231" s="52"/>
-      <c r="O231" s="52"/>
-      <c r="P231" s="52"/>
-      <c r="Q231" s="52"/>
-      <c r="R231" s="52"/>
-      <c r="S231" s="52"/>
-      <c r="T231" s="52"/>
-      <c r="U231" s="52"/>
-      <c r="V231" s="52"/>
-      <c r="W231" s="52"/>
-      <c r="X231" s="52"/>
-      <c r="Y231" s="52"/>
-      <c r="Z231" s="52"/>
-      <c r="AA231" s="52"/>
-      <c r="AB231" s="52"/>
-      <c r="AC231" s="52"/>
-      <c r="AD231" s="52"/>
-      <c r="AE231" s="52"/>
-      <c r="AF231" s="52"/>
-      <c r="AG231" s="52"/>
+      <c r="B231" s="55"/>
+      <c r="C231" s="55"/>
+      <c r="D231" s="55"/>
+      <c r="E231" s="55"/>
+      <c r="F231" s="55"/>
+      <c r="G231" s="55"/>
+      <c r="H231" s="55"/>
+      <c r="I231" s="55"/>
+      <c r="J231" s="55"/>
+      <c r="K231" s="55"/>
+      <c r="L231" s="55"/>
+      <c r="M231" s="55"/>
+      <c r="N231" s="55"/>
+      <c r="O231" s="55"/>
+      <c r="P231" s="55"/>
+      <c r="Q231" s="55"/>
+      <c r="R231" s="55"/>
+      <c r="S231" s="55"/>
+      <c r="T231" s="55"/>
+      <c r="U231" s="55"/>
+      <c r="V231" s="55"/>
+      <c r="W231" s="55"/>
+      <c r="X231" s="55"/>
+      <c r="Y231" s="55"/>
+      <c r="Z231" s="55"/>
+      <c r="AA231" s="55"/>
+      <c r="AB231" s="55"/>
+      <c r="AC231" s="55"/>
+      <c r="AD231" s="55"/>
+      <c r="AE231" s="55"/>
+      <c r="AF231" s="55"/>
+      <c r="AG231" s="55"/>
       <c r="AH231" s="24"/>
       <c r="AI231" s="24"/>
     </row>
@@ -23524,7 +19889,7 @@
       <c r="F234" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G234" s="53"/>
+      <c r="G234" s="47"/>
       <c r="H234" s="38" t="s">
         <v>30</v>
       </c>
@@ -23562,7 +19927,7 @@
       <c r="T234" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="U234" s="53"/>
+      <c r="U234" s="47"/>
       <c r="V234" s="38" t="s">
         <v>30</v>
       </c>
@@ -23596,7 +19961,7 @@
       </c>
       <c r="AG234" s="38"/>
       <c r="AH234" s="33">
-        <f t="shared" ref="AH234:AH238" si="143">COUNTIF(C234:AG234, "P")</f>
+        <f t="shared" ref="AH234" si="143">COUNTIF(C234:AG234, "P")</f>
         <v>23</v>
       </c>
       <c r="AI234" s="33">
@@ -23623,7 +19988,7 @@
       <c r="F235" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G235" s="53"/>
+      <c r="G235" s="47"/>
       <c r="H235" s="42" t="s">
         <v>30</v>
       </c>
@@ -23661,7 +20026,7 @@
       <c r="T235" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U235" s="53"/>
+      <c r="U235" s="47"/>
       <c r="V235" s="43" t="s">
         <v>38</v>
       </c>
@@ -23695,7 +20060,7 @@
       </c>
       <c r="AG235" s="40"/>
       <c r="AH235" s="33">
-        <f t="shared" ref="AH235:AH239" si="144">COUNTIF(C235:AG235,"P")</f>
+        <f t="shared" ref="AH235" si="144">COUNTIF(C235:AG235,"P")</f>
         <v>17</v>
       </c>
       <c r="AI235" s="33">
@@ -23722,7 +20087,7 @@
       <c r="F236" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G236" s="53"/>
+      <c r="G236" s="47"/>
       <c r="H236" s="42" t="s">
         <v>30</v>
       </c>
@@ -23760,7 +20125,7 @@
       <c r="T236" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U236" s="53"/>
+      <c r="U236" s="47"/>
       <c r="V236" s="42" t="s">
         <v>30</v>
       </c>
@@ -23794,7 +20159,7 @@
       </c>
       <c r="AG236" s="38"/>
       <c r="AH236" s="33">
-        <f t="shared" ref="AH236:AH240" si="145">COUNTIF(C236:AG236, "P")</f>
+        <f t="shared" ref="AH236" si="145">COUNTIF(C236:AG236, "P")</f>
         <v>23</v>
       </c>
       <c r="AI236" s="33">
@@ -23821,7 +20186,7 @@
       <c r="F237" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G237" s="53"/>
+      <c r="G237" s="47"/>
       <c r="H237" s="42" t="s">
         <v>30</v>
       </c>
@@ -23859,7 +20224,7 @@
       <c r="T237" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U237" s="53"/>
+      <c r="U237" s="47"/>
       <c r="V237" s="42" t="s">
         <v>30</v>
       </c>
@@ -23920,7 +20285,7 @@
       <c r="F238" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G238" s="53"/>
+      <c r="G238" s="47"/>
       <c r="H238" s="42" t="s">
         <v>30</v>
       </c>
@@ -23958,7 +20323,7 @@
       <c r="T238" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U238" s="53"/>
+      <c r="U238" s="47"/>
       <c r="V238" s="42" t="s">
         <v>30</v>
       </c>
@@ -23992,7 +20357,7 @@
       </c>
       <c r="AG238" s="40"/>
       <c r="AH238" s="33">
-        <f t="shared" ref="AH238:AH242" si="148">COUNTIF(C238:AG238, "P")</f>
+        <f t="shared" ref="AH238" si="148">COUNTIF(C238:AG238, "P")</f>
         <v>23</v>
       </c>
       <c r="AI238" s="33">
@@ -24057,7 +20422,7 @@
       <c r="T239" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U239" s="53"/>
+      <c r="U239" s="47"/>
       <c r="V239" s="42" t="s">
         <v>30</v>
       </c>
@@ -24091,7 +20456,7 @@
       </c>
       <c r="AG239" s="38"/>
       <c r="AH239" s="33">
-        <f t="shared" ref="AH239:AH243" si="149">COUNTIF(C239:AG239,"P")</f>
+        <f t="shared" ref="AH239" si="149">COUNTIF(C239:AG239,"P")</f>
         <v>22</v>
       </c>
       <c r="AI239" s="33">
@@ -24190,7 +20555,7 @@
       </c>
       <c r="AG240" s="38"/>
       <c r="AH240" s="33">
-        <f t="shared" ref="AH240:AH244" si="150">COUNTIF(C240:AG240, "P")</f>
+        <f t="shared" ref="AH240" si="150">COUNTIF(C240:AG240, "P")</f>
         <v>20</v>
       </c>
       <c r="AI240" s="33">
@@ -24217,7 +20582,7 @@
       <c r="F241" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G241" s="53"/>
+      <c r="G241" s="47"/>
       <c r="H241" s="43" t="s">
         <v>38</v>
       </c>
@@ -24354,7 +20719,7 @@
       <c r="T242" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U242" s="53"/>
+      <c r="U242" s="47"/>
       <c r="V242" s="42" t="s">
         <v>30</v>
       </c>
@@ -24415,7 +20780,7 @@
       <c r="F243" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G243" s="53"/>
+      <c r="G243" s="47"/>
       <c r="H243" s="43" t="s">
         <v>38</v>
       </c>
@@ -24453,7 +20818,7 @@
       <c r="T243" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U243" s="53"/>
+      <c r="U243" s="47"/>
       <c r="V243" s="42" t="s">
         <v>30</v>
       </c>
@@ -24552,7 +20917,7 @@
       <c r="T244" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U244" s="53"/>
+      <c r="U244" s="47"/>
       <c r="V244" s="43" t="s">
         <v>38</v>
       </c>
@@ -24613,7 +20978,7 @@
       <c r="F245" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G245" s="53"/>
+      <c r="G245" s="47"/>
       <c r="H245" s="42" t="s">
         <v>30</v>
       </c>
@@ -24651,7 +21016,7 @@
       <c r="T245" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="U245" s="53"/>
+      <c r="U245" s="47"/>
       <c r="V245" s="42" t="s">
         <v>30</v>
       </c>
@@ -24712,7 +21077,7 @@
       <c r="F246" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G246" s="53"/>
+      <c r="G246" s="47"/>
       <c r="H246" s="42" t="s">
         <v>30</v>
       </c>
@@ -24750,7 +21115,7 @@
       <c r="T246" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U246" s="53"/>
+      <c r="U246" s="47"/>
       <c r="V246" s="43" t="s">
         <v>38</v>
       </c>
@@ -24811,7 +21176,7 @@
       <c r="F247" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G247" s="53"/>
+      <c r="G247" s="47"/>
       <c r="H247" s="42" t="s">
         <v>30</v>
       </c>
@@ -24849,7 +21214,7 @@
       <c r="T247" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="U247" s="53"/>
+      <c r="U247" s="47"/>
       <c r="V247" s="42" t="s">
         <v>30</v>
       </c>
@@ -24910,7 +21275,7 @@
       <c r="F248" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G248" s="53"/>
+      <c r="G248" s="47"/>
       <c r="H248" s="42" t="s">
         <v>30</v>
       </c>
@@ -24948,7 +21313,7 @@
       <c r="T248" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U248" s="53"/>
+      <c r="U248" s="47"/>
       <c r="V248" s="42" t="s">
         <v>30</v>
       </c>
@@ -24991,41 +21356,41 @@
       </c>
     </row>
     <row r="254" spans="1:35" ht="33.6">
-      <c r="A254" s="51">
+      <c r="A254" s="54">
         <v>45261</v>
       </c>
-      <c r="B254" s="52"/>
-      <c r="C254" s="52"/>
-      <c r="D254" s="52"/>
-      <c r="E254" s="52"/>
-      <c r="F254" s="52"/>
-      <c r="G254" s="52"/>
-      <c r="H254" s="52"/>
-      <c r="I254" s="52"/>
-      <c r="J254" s="52"/>
-      <c r="K254" s="52"/>
-      <c r="L254" s="52"/>
-      <c r="M254" s="52"/>
-      <c r="N254" s="52"/>
-      <c r="O254" s="52"/>
-      <c r="P254" s="52"/>
-      <c r="Q254" s="52"/>
-      <c r="R254" s="52"/>
-      <c r="S254" s="52"/>
-      <c r="T254" s="52"/>
-      <c r="U254" s="52"/>
-      <c r="V254" s="52"/>
-      <c r="W254" s="52"/>
-      <c r="X254" s="52"/>
-      <c r="Y254" s="52"/>
-      <c r="Z254" s="52"/>
-      <c r="AA254" s="52"/>
-      <c r="AB254" s="52"/>
-      <c r="AC254" s="52"/>
-      <c r="AD254" s="52"/>
-      <c r="AE254" s="52"/>
-      <c r="AF254" s="52"/>
-      <c r="AG254" s="52"/>
+      <c r="B254" s="55"/>
+      <c r="C254" s="55"/>
+      <c r="D254" s="55"/>
+      <c r="E254" s="55"/>
+      <c r="F254" s="55"/>
+      <c r="G254" s="55"/>
+      <c r="H254" s="55"/>
+      <c r="I254" s="55"/>
+      <c r="J254" s="55"/>
+      <c r="K254" s="55"/>
+      <c r="L254" s="55"/>
+      <c r="M254" s="55"/>
+      <c r="N254" s="55"/>
+      <c r="O254" s="55"/>
+      <c r="P254" s="55"/>
+      <c r="Q254" s="55"/>
+      <c r="R254" s="55"/>
+      <c r="S254" s="55"/>
+      <c r="T254" s="55"/>
+      <c r="U254" s="55"/>
+      <c r="V254" s="55"/>
+      <c r="W254" s="55"/>
+      <c r="X254" s="55"/>
+      <c r="Y254" s="55"/>
+      <c r="Z254" s="55"/>
+      <c r="AA254" s="55"/>
+      <c r="AB254" s="55"/>
+      <c r="AC254" s="55"/>
+      <c r="AD254" s="55"/>
+      <c r="AE254" s="55"/>
+      <c r="AF254" s="55"/>
+      <c r="AG254" s="55"/>
       <c r="AH254" s="24"/>
       <c r="AI254" s="24"/>
     </row>
@@ -25267,7 +21632,7 @@
       <c r="K257" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="L257" s="53"/>
+      <c r="L257" s="47"/>
       <c r="M257" s="38" t="s">
         <v>30</v>
       </c>
@@ -25305,7 +21670,7 @@
       <c r="Y257" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z257" s="53"/>
+      <c r="Z257" s="47"/>
       <c r="AA257" s="38" t="s">
         <v>30</v>
       </c>
@@ -25326,7 +21691,7 @@
       </c>
       <c r="AG257" s="46"/>
       <c r="AH257" s="33">
-        <f t="shared" ref="AH257:AH261" si="158">COUNTIF(C257:AG257, "P")</f>
+        <f t="shared" ref="AH257" si="158">COUNTIF(C257:AG257, "P")</f>
         <v>21</v>
       </c>
       <c r="AI257" s="33">
@@ -25366,7 +21731,7 @@
       <c r="K258" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L258" s="53"/>
+      <c r="L258" s="47"/>
       <c r="M258" s="42" t="s">
         <v>30</v>
       </c>
@@ -25404,7 +21769,7 @@
       <c r="Y258" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Z258" s="53"/>
+      <c r="Z258" s="47"/>
       <c r="AA258" s="43" t="s">
         <v>38</v>
       </c>
@@ -25425,7 +21790,7 @@
       </c>
       <c r="AG258" s="46"/>
       <c r="AH258" s="33">
-        <f t="shared" ref="AH258:AH262" si="159">COUNTIF(C258:AG258,"P")</f>
+        <f t="shared" ref="AH258" si="159">COUNTIF(C258:AG258,"P")</f>
         <v>19</v>
       </c>
       <c r="AI258" s="33">
@@ -25465,7 +21830,7 @@
       <c r="K259" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L259" s="53"/>
+      <c r="L259" s="47"/>
       <c r="M259" s="42" t="s">
         <v>30</v>
       </c>
@@ -25503,7 +21868,7 @@
       <c r="Y259" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Z259" s="53"/>
+      <c r="Z259" s="47"/>
       <c r="AA259" s="42" t="s">
         <v>30</v>
       </c>
@@ -25524,7 +21889,7 @@
       </c>
       <c r="AG259" s="46"/>
       <c r="AH259" s="33">
-        <f t="shared" ref="AH259:AH263" si="160">COUNTIF(C259:AG259, "P")</f>
+        <f t="shared" ref="AH259" si="160">COUNTIF(C259:AG259, "P")</f>
         <v>23</v>
       </c>
       <c r="AI259" s="33">
@@ -25564,7 +21929,7 @@
       <c r="K260" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L260" s="53"/>
+      <c r="L260" s="47"/>
       <c r="M260" s="42" t="s">
         <v>30</v>
       </c>
@@ -25602,7 +21967,7 @@
       <c r="Y260" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Z260" s="53"/>
+      <c r="Z260" s="47"/>
       <c r="AA260" s="42" t="s">
         <v>30</v>
       </c>
@@ -25663,7 +22028,7 @@
       <c r="K261" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L261" s="53"/>
+      <c r="L261" s="47"/>
       <c r="M261" s="42" t="s">
         <v>30</v>
       </c>
@@ -25701,7 +22066,7 @@
       <c r="Y261" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Z261" s="53"/>
+      <c r="Z261" s="47"/>
       <c r="AA261" s="42" t="s">
         <v>30</v>
       </c>
@@ -25722,7 +22087,7 @@
       </c>
       <c r="AG261" s="46"/>
       <c r="AH261" s="33">
-        <f t="shared" ref="AH261:AH265" si="163">COUNTIF(C261:AG261, "P")</f>
+        <f t="shared" ref="AH261" si="163">COUNTIF(C261:AG261, "P")</f>
         <v>23</v>
       </c>
       <c r="AI261" s="33">
@@ -25762,7 +22127,7 @@
       <c r="K262" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L262" s="53"/>
+      <c r="L262" s="47"/>
       <c r="M262" s="42" t="s">
         <v>30</v>
       </c>
@@ -25800,7 +22165,7 @@
       <c r="Y262" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Z262" s="53"/>
+      <c r="Z262" s="47"/>
       <c r="AA262" s="42" t="s">
         <v>30</v>
       </c>
@@ -25821,7 +22186,7 @@
       </c>
       <c r="AG262" s="46"/>
       <c r="AH262" s="33">
-        <f t="shared" ref="AH262:AH266" si="164">COUNTIF(C262:AG262,"P")</f>
+        <f t="shared" ref="AH262" si="164">COUNTIF(C262:AG262,"P")</f>
         <v>20</v>
       </c>
       <c r="AI262" s="33">
@@ -25920,7 +22285,7 @@
       </c>
       <c r="AG263" s="46"/>
       <c r="AH263" s="33">
-        <f t="shared" ref="AH263:AH267" si="165">COUNTIF(C263:AG263, "P")</f>
+        <f t="shared" ref="AH263" si="165">COUNTIF(C263:AG263, "P")</f>
         <v>21</v>
       </c>
       <c r="AI263" s="33">
@@ -26059,7 +22424,7 @@
       <c r="K265" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L265" s="53"/>
+      <c r="L265" s="47"/>
       <c r="M265" s="42" t="s">
         <v>30</v>
       </c>
@@ -26097,7 +22462,7 @@
       <c r="Y265" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Z265" s="53"/>
+      <c r="Z265" s="47"/>
       <c r="AA265" s="42" t="s">
         <v>30</v>
       </c>
@@ -26158,7 +22523,7 @@
       <c r="K266" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L266" s="53"/>
+      <c r="L266" s="47"/>
       <c r="M266" s="42" t="s">
         <v>30</v>
       </c>
@@ -26196,7 +22561,7 @@
       <c r="Y266" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Z266" s="53"/>
+      <c r="Z266" s="47"/>
       <c r="AA266" s="42" t="s">
         <v>30</v>
       </c>
@@ -26257,7 +22622,7 @@
       <c r="K267" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L267" s="53"/>
+      <c r="L267" s="47"/>
       <c r="M267" s="43" t="s">
         <v>38</v>
       </c>
@@ -26295,7 +22660,7 @@
       <c r="Y267" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Z267" s="53"/>
+      <c r="Z267" s="47"/>
       <c r="AA267" s="43" t="s">
         <v>38</v>
       </c>
@@ -26356,7 +22721,7 @@
       <c r="K268" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L268" s="53"/>
+      <c r="L268" s="47"/>
       <c r="M268" s="42" t="s">
         <v>30</v>
       </c>
@@ -26394,7 +22759,7 @@
       <c r="Y268" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Z268" s="53"/>
+      <c r="Z268" s="47"/>
       <c r="AA268" s="42" t="s">
         <v>30</v>
       </c>
@@ -26455,7 +22820,7 @@
       <c r="K269" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L269" s="53"/>
+      <c r="L269" s="47"/>
       <c r="M269" s="43" t="s">
         <v>38</v>
       </c>
@@ -26493,7 +22858,7 @@
       <c r="Y269" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Z269" s="53"/>
+      <c r="Z269" s="47"/>
       <c r="AA269" s="43" t="s">
         <v>38</v>
       </c>
@@ -26554,7 +22919,7 @@
       <c r="K270" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L270" s="53"/>
+      <c r="L270" s="47"/>
       <c r="M270" s="42" t="s">
         <v>30</v>
       </c>
@@ -26592,7 +22957,7 @@
       <c r="Y270" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Z270" s="53"/>
+      <c r="Z270" s="47"/>
       <c r="AA270" s="42" t="s">
         <v>30</v>
       </c>
@@ -26653,7 +23018,7 @@
       <c r="K271" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L271" s="53"/>
+      <c r="L271" s="47"/>
       <c r="M271" s="42" t="s">
         <v>30</v>
       </c>
@@ -26691,7 +23056,7 @@
       <c r="Y271" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Z271" s="53"/>
+      <c r="Z271" s="47"/>
       <c r="AA271" s="42" t="s">
         <v>30</v>
       </c>
@@ -26722,6 +23087,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A25:AG25"/>
+    <mergeCell ref="A48:AG48"/>
+    <mergeCell ref="A71:AG71"/>
     <mergeCell ref="A208:AG208"/>
     <mergeCell ref="A231:AG231"/>
     <mergeCell ref="A254:AG254"/>
@@ -26730,11 +23100,6 @@
     <mergeCell ref="A139:AG139"/>
     <mergeCell ref="A162:AG162"/>
     <mergeCell ref="A185:AG185"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="A25:AG25"/>
-    <mergeCell ref="A48:AG48"/>
-    <mergeCell ref="A71:AG71"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A3:AG4 AH3">
@@ -26773,40 +23138,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:AG5 C6:J19 L6:AG19 K6:K21">
-    <cfRule type="expression" dxfId="534" priority="155">
-      <formula>C$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="533" priority="156">
-      <formula>C$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="532" priority="157">
-      <formula>IF(C4,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G42 N28:N42 U28:U42 AB28:AB42">
-    <cfRule type="expression" dxfId="531" priority="133">
-      <formula>G$28="P"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="530" priority="134">
-      <formula>G$27="SUN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G65 N51:N65 U51:U65">
-    <cfRule type="expression" dxfId="529" priority="127">
-      <formula>G$51="SUN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="528" priority="153">
-      <formula>G$6="A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB51:AB65">
-    <cfRule type="expression" dxfId="527" priority="128">
-      <formula>AB$51="SUN"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A72:AG73 AH72">
     <cfRule type="colorScale" priority="126">
       <colorScale>
@@ -26819,22 +23150,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG74:AG88">
-    <cfRule type="expression" dxfId="525" priority="125">
-      <formula>AG$51="SUN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA74:AD88">
-    <cfRule type="expression" dxfId="524" priority="121">
-      <formula>AA$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="122">
-      <formula>AA$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="522" priority="123">
-      <formula>IF(AA73,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A95:AG96 AH95">
     <cfRule type="colorScale" priority="116">
       <colorScale>
@@ -26845,17 +23160,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74:H88">
-    <cfRule type="expression" dxfId="517" priority="113">
-      <formula>F$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="516" priority="114">
-      <formula>F$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="115">
-      <formula>IF(F73,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:AG119 AH118">
@@ -26882,28 +23186,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD142:AD156">
-    <cfRule type="expression" dxfId="470" priority="91">
-      <formula>AD$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="92">
-      <formula>AD$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="468" priority="93">
-      <formula>IF(AD141,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG142:AG156">
-    <cfRule type="expression" dxfId="467" priority="88">
-      <formula>AG$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="466" priority="89">
-      <formula>AG$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="90">
-      <formula>IF(AG141,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A163:AG164 AH163">
     <cfRule type="colorScale" priority="83">
       <colorScale>
@@ -26914,17 +23196,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y165:Y179">
-    <cfRule type="expression" dxfId="460" priority="80">
-      <formula>Y$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="81">
-      <formula>Y$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="458" priority="82">
-      <formula>IF(Y164,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:AG187 AH186">
@@ -26939,28 +23210,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H188:H202">
-    <cfRule type="expression" dxfId="372" priority="72">
-      <formula>H$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="73">
-      <formula>H$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="370" priority="74">
-      <formula>IF(H187,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA188:AC202">
-    <cfRule type="expression" dxfId="366" priority="66">
-      <formula>AA$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="67">
-      <formula>AA$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="68">
-      <formula>IF(AA187,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A209:AG210 AH209">
     <cfRule type="colorScale" priority="65">
       <colorScale>
@@ -26971,66 +23220,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C211:C225 J211:J225 Q211:R225 W211:X225 AE211:AE225 AA211:AA225">
-    <cfRule type="expression" dxfId="357" priority="56">
-      <formula>C$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="57">
-      <formula>C$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="58">
-      <formula>IF(C210,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D211:F225">
-    <cfRule type="expression" dxfId="353" priority="52">
-      <formula>D$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="53">
-      <formula>D$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="54">
-      <formula>IF(D210,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E211">
-    <cfRule type="expression" dxfId="350" priority="51">
-      <formula>XEW$6="A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H211:H225">
-    <cfRule type="expression" dxfId="349" priority="48">
-      <formula>H$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="49">
-      <formula>H$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="50">
-      <formula>IF(H210,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S211:T225">
-    <cfRule type="expression" dxfId="346" priority="45">
-      <formula>S$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="46">
-      <formula>S$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="47">
-      <formula>IF(S210,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y211:Y225">
-    <cfRule type="expression" dxfId="343" priority="42">
-      <formula>Y$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="342" priority="43">
-      <formula>Y$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="341" priority="44">
-      <formula>IF(Y210,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A232:AG233 AH232">
@@ -27045,33 +23234,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB234:AB248">
-    <cfRule type="expression" dxfId="340" priority="40">
-      <formula>AB$51="SUN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H234:H248">
-    <cfRule type="expression" dxfId="207" priority="28">
-      <formula>H$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="29">
-      <formula>H$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="30">
-      <formula>IF(H233,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y234:Y248">
-    <cfRule type="expression" dxfId="204" priority="25">
-      <formula>Y$4="SUN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="26">
-      <formula>Y$4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="27">
-      <formula>IF(Y233,"SUN")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A255:AG256 AH255">
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -27084,48 +23246,240 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K257:K271">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>K$4="SUN"</formula>
+  <conditionalFormatting sqref="C211:F225">
+    <cfRule type="expression" dxfId="61" priority="54">
+      <formula>IF(C210,"SUN")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>K$4="A"</formula>
+    <cfRule type="expression" dxfId="60" priority="53">
+      <formula>C$4="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>IF(K256,"SUN")</formula>
+    <cfRule type="expression" dxfId="59" priority="52">
+      <formula>C$4="SUN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:AG5 C6:J19 L6:AG19 K6:K21">
+    <cfRule type="expression" dxfId="58" priority="155">
+      <formula>C$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="157">
+      <formula>IF(C4,"SUN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="156">
+      <formula>C$4="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E211">
+    <cfRule type="expression" dxfId="55" priority="51">
+      <formula>XEW$6="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74:H88">
+    <cfRule type="expression" dxfId="54" priority="115">
+      <formula>IF(F73,"SUN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="114">
+      <formula>F$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="113">
+      <formula>F$4="SUN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G42 N28:N42 U28:U42 AB28:AB42">
+    <cfRule type="expression" dxfId="51" priority="134">
+      <formula>G$27="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="133">
+      <formula>G$28="P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G65 N51:N65 U51:U65">
+    <cfRule type="expression" dxfId="49" priority="127">
+      <formula>G$51="SUN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H188:H202">
+    <cfRule type="expression" dxfId="48" priority="74">
+      <formula>IF(H187,"SUN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="73">
+      <formula>H$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="72">
+      <formula>H$4="SUN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H211:H225">
+    <cfRule type="expression" dxfId="45" priority="48">
+      <formula>H$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="49">
+      <formula>H$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="50">
+      <formula>IF(H210,"SUN")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H234:H248">
+    <cfRule type="expression" dxfId="42" priority="29">
+      <formula>H$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="28">
+      <formula>H$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="30">
+      <formula>IF(H233,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H257:H271">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="39" priority="7">
       <formula>H$4="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="38" priority="9">
+      <formula>IF(H256,"SUN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>H$4="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>IF(H256,"SUN")</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J211:J225 AA211:AA225 AE211:AE225">
+    <cfRule type="expression" dxfId="36" priority="58">
+      <formula>IF(J210,"SUN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="56">
+      <formula>J$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="57">
+      <formula>J$4="A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V257:V271">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="K257:K271">
+    <cfRule type="expression" dxfId="33" priority="12">
+      <formula>IF(K256,"SUN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="10">
+      <formula>K$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="11">
+      <formula>K$4="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q211:T225">
+    <cfRule type="expression" dxfId="30" priority="45">
+      <formula>Q$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="46">
+      <formula>Q$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="47">
+      <formula>IF(Q210,"SUN")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5">
+    <cfRule type="expression" dxfId="27" priority="153">
+      <formula>G$6="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V257:W271">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>V$4="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>V$4="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>IF(V256,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W257:W271">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="W211:Y225">
+    <cfRule type="expression" dxfId="23" priority="44">
+      <formula>IF(W210,"SUN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="43">
+      <formula>W$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="42">
       <formula>W$4="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>W$4="A"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y165:Y179">
+    <cfRule type="expression" dxfId="20" priority="80">
+      <formula>Y$4="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>IF(W256,"SUN")</formula>
+    <cfRule type="expression" dxfId="19" priority="81">
+      <formula>Y$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="82">
+      <formula>IF(Y164,"SUN")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y234:Y248">
+    <cfRule type="expression" dxfId="17" priority="26">
+      <formula>Y$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="25">
+      <formula>Y$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="27">
+      <formula>IF(Y233,"SUN")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA188:AC202">
+    <cfRule type="expression" dxfId="14" priority="66">
+      <formula>AA$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="67">
+      <formula>AA$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="68">
+      <formula>IF(AA187,"SUN")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA74:AD88">
+    <cfRule type="expression" dxfId="11" priority="121">
+      <formula>AA$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="122">
+      <formula>AA$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="123">
+      <formula>IF(AA73,"SUN")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB51:AB65">
+    <cfRule type="expression" dxfId="8" priority="128">
+      <formula>AB$51="SUN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB234:AB248">
+    <cfRule type="expression" dxfId="7" priority="40">
+      <formula>AB$51="SUN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD142:AD156">
+    <cfRule type="expression" dxfId="6" priority="93">
+      <formula>IF(AD141,"SUN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="92">
+      <formula>AD$4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="91">
+      <formula>AD$4="SUN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG74:AG88">
+    <cfRule type="expression" dxfId="3" priority="125">
+      <formula>AG$51="SUN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG142:AG156">
+    <cfRule type="expression" dxfId="2" priority="88">
+      <formula>AG$4="SUN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="90">
+      <formula>IF(AG141,"SUN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="89">
+      <formula>AG$4="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
